--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_14_16.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_14_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-992966.1238037205</v>
+        <v>-993778.3606092576</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2909833.600547332</v>
+        <v>2909833.600547329</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.029273655</v>
       </c>
     </row>
     <row r="9">
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>10.00967878293136</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>8.816525072005941</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,73 +1209,73 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="C9" t="n">
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="D9" t="n">
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>8.816525072005941</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>10.00967878293136</v>
       </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>301.5465712312742</v>
       </c>
       <c r="C11" t="n">
-        <v>289.557888188956</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>280.539192233484</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>321.4531458913666</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>285.2314931845311</v>
+        <v>322.8491597882405</v>
       </c>
       <c r="H11" t="n">
         <v>235.4343762339799</v>
       </c>
       <c r="I11" t="n">
-        <v>61.82000905557408</v>
+        <v>61.82000905557412</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.55747718688171</v>
+        <v>84.55747718688175</v>
       </c>
       <c r="T11" t="n">
-        <v>131.2069945273323</v>
+        <v>131.2069945273324</v>
       </c>
       <c r="U11" t="n">
         <v>163.7369697115373</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>245.0529484714534</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>270.3530479494103</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>57.98737105574989</v>
       </c>
       <c r="Y11" t="n">
         <v>301.0499039783556</v>
@@ -1461,7 +1461,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>127.1537587444849</v>
+        <v>127.1537587444861</v>
       </c>
       <c r="H12" t="n">
         <v>96.16225684418836</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.16328210597129</v>
+        <v>93.16328210597133</v>
       </c>
       <c r="C13" t="n">
-        <v>79.36327695137177</v>
+        <v>63.02521114633004</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>62.98464134895021</v>
       </c>
       <c r="E13" t="n">
-        <v>61.93239120472961</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>67.07973325206102</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>46.95714478044758</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.63407987987206</v>
+        <v>48.6340798798721</v>
       </c>
       <c r="S13" t="n">
-        <v>118.8162700318314</v>
+        <v>118.8162700318315</v>
       </c>
       <c r="T13" t="n">
         <v>141.2609306242059</v>
       </c>
       <c r="U13" t="n">
-        <v>66.42596542276856</v>
+        <v>195.7486591160982</v>
       </c>
       <c r="V13" t="n">
         <v>169.5714185055969</v>
       </c>
       <c r="W13" t="n">
-        <v>194.7383045762101</v>
+        <v>194.7383045762102</v>
       </c>
       <c r="X13" t="n">
         <v>140.3834065720133</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.2582743280809</v>
+        <v>131.258274328081</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>301.5465712312742</v>
       </c>
       <c r="C14" t="n">
-        <v>289.557888188956</v>
+        <v>289.5578881889559</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>302.2813298033895</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>321.4531458913667</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>322.8491597882405</v>
+        <v>82.16452870636181</v>
       </c>
       <c r="H14" t="n">
-        <v>235.4343762339799</v>
+        <v>235.4343762339798</v>
       </c>
       <c r="I14" t="n">
-        <v>61.82000905557409</v>
+        <v>61.82000905557403</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>84.55747718688166</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>131.2069945273323</v>
       </c>
       <c r="U14" t="n">
-        <v>75.08868878068277</v>
+        <v>163.7369697115373</v>
       </c>
       <c r="V14" t="n">
-        <v>245.0529484714534</v>
+        <v>245.0529484714533</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>270.3530479494102</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>289.6533061821568</v>
       </c>
       <c r="Y14" t="n">
         <v>301.0499039783556</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>9.745483048870184</v>
       </c>
       <c r="C16" t="n">
-        <v>79.36327695137179</v>
+        <v>79.36327695137173</v>
       </c>
       <c r="D16" t="n">
-        <v>62.98464134895018</v>
+        <v>62.98464134895012</v>
       </c>
       <c r="E16" t="n">
-        <v>61.93239120472963</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>62.39931553291594</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>78.43302460524716</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>67.07973325206105</v>
+        <v>67.07973325206099</v>
       </c>
       <c r="I16" t="n">
-        <v>46.95714478044759</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.63407987987209</v>
+        <v>48.63407987987203</v>
       </c>
       <c r="S16" t="n">
-        <v>118.8162700318315</v>
+        <v>118.8162700318314</v>
       </c>
       <c r="T16" t="n">
         <v>141.2609306242059</v>
       </c>
       <c r="U16" t="n">
-        <v>150.5105706178365</v>
+        <v>195.7486591160982</v>
       </c>
       <c r="V16" t="n">
         <v>169.5714185055969</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>194.7383045762101</v>
       </c>
       <c r="X16" t="n">
-        <v>140.3834065720133</v>
+        <v>140.3834065720132</v>
       </c>
       <c r="Y16" t="n">
-        <v>131.258274328081</v>
+        <v>131.2582743280809</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>244.0861251803277</v>
       </c>
       <c r="G17" t="n">
-        <v>245.4821390772016</v>
+        <v>245.4821390772015</v>
       </c>
       <c r="H17" t="n">
         <v>158.0673555229409</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.19045647584278</v>
+        <v>7.190456475842758</v>
       </c>
       <c r="T17" t="n">
-        <v>53.83997381629342</v>
+        <v>53.83997381629339</v>
       </c>
       <c r="U17" t="n">
-        <v>86.36994900049837</v>
+        <v>86.36994900049834</v>
       </c>
       <c r="V17" t="n">
         <v>167.6859277604144</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.79626139493237</v>
+        <v>15.79626139493234</v>
       </c>
       <c r="C19" t="n">
-        <v>1.996256240332855</v>
+        <v>1.996256240332826</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.066003894208226</v>
+        <v>1.066003894208198</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>41.44924932079252</v>
+        <v>196.8017054915155</v>
       </c>
       <c r="T19" t="n">
-        <v>63.89390991316696</v>
+        <v>63.89390991316692</v>
       </c>
       <c r="U19" t="n">
-        <v>273.7340945757819</v>
+        <v>118.3816384050592</v>
       </c>
       <c r="V19" t="n">
-        <v>92.20439779455796</v>
+        <v>92.20439779455793</v>
       </c>
       <c r="W19" t="n">
         <v>117.3712838651712</v>
       </c>
       <c r="X19" t="n">
-        <v>63.01638586097434</v>
+        <v>63.01638586097431</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.89125361704203</v>
+        <v>53.891253617042</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>244.0861251803277</v>
       </c>
       <c r="G20" t="n">
-        <v>245.4821390772016</v>
+        <v>245.4821390772015</v>
       </c>
       <c r="H20" t="n">
         <v>158.0673555229409</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.19045647584279</v>
+        <v>7.190456475842758</v>
       </c>
       <c r="T20" t="n">
-        <v>53.83997381629342</v>
+        <v>53.83997381629339</v>
       </c>
       <c r="U20" t="n">
-        <v>86.36994900049837</v>
+        <v>86.36994900049834</v>
       </c>
       <c r="V20" t="n">
         <v>167.6859277604144</v>
@@ -2144,7 +2144,7 @@
         <v>192.9860272383713</v>
       </c>
       <c r="X20" t="n">
-        <v>212.2862854711183</v>
+        <v>212.2862854711179</v>
       </c>
       <c r="Y20" t="n">
         <v>223.6828832673167</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.79626139493237</v>
+        <v>15.79626139493234</v>
       </c>
       <c r="C22" t="n">
-        <v>1.996256240332855</v>
+        <v>1.996256240332826</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.066003894208226</v>
+        <v>1.066003894208198</v>
       </c>
       <c r="H22" t="n">
-        <v>155.3524561707226</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>41.44924932079252</v>
+        <v>196.8017054915155</v>
       </c>
       <c r="T22" t="n">
-        <v>63.89390991316696</v>
+        <v>63.89390991316692</v>
       </c>
       <c r="U22" t="n">
-        <v>118.3816384050593</v>
+        <v>118.3816384050592</v>
       </c>
       <c r="V22" t="n">
-        <v>92.20439779455796</v>
+        <v>92.20439779455793</v>
       </c>
       <c r="W22" t="n">
         <v>117.3712838651712</v>
       </c>
       <c r="X22" t="n">
-        <v>63.01638586097434</v>
+        <v>63.01638586097431</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.89125361704203</v>
+        <v>53.891253617042</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>244.0861251803277</v>
       </c>
       <c r="G23" t="n">
-        <v>245.4821390772016</v>
+        <v>245.4821390772015</v>
       </c>
       <c r="H23" t="n">
         <v>158.0673555229409</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.19045647584278</v>
+        <v>7.190456475842751</v>
       </c>
       <c r="T23" t="n">
-        <v>53.83997381629342</v>
+        <v>53.83997381629339</v>
       </c>
       <c r="U23" t="n">
-        <v>86.36994900049837</v>
+        <v>86.36994900049834</v>
       </c>
       <c r="V23" t="n">
         <v>167.6859277604144</v>
@@ -2406,7 +2406,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>133.3468600696251</v>
       </c>
       <c r="G24" t="n">
         <v>127.1537587444849</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>41.33892434428704</v>
+        <v>41.33892434428589</v>
       </c>
       <c r="S24" t="n">
         <v>145.9321186766747</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.79626139493237</v>
+        <v>15.79626139493234</v>
       </c>
       <c r="C25" t="n">
-        <v>1.996256240332855</v>
+        <v>1.996256240332826</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.066003894208226</v>
+        <v>1.066003894208198</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2518,31 +2518,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.9720361047386</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>41.44924932079252</v>
+        <v>41.44924932079249</v>
       </c>
       <c r="T25" t="n">
-        <v>63.89390991316696</v>
+        <v>219.2463660838899</v>
       </c>
       <c r="U25" t="n">
-        <v>255.7620584710433</v>
+        <v>118.3816384050592</v>
       </c>
       <c r="V25" t="n">
-        <v>92.20439779455796</v>
+        <v>92.20439779455793</v>
       </c>
       <c r="W25" t="n">
         <v>117.3712838651712</v>
       </c>
       <c r="X25" t="n">
-        <v>63.01638586097434</v>
+        <v>63.01638586097431</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.89125361704203</v>
+        <v>53.891253617042</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2561,7 @@
         <v>266.5656814796316</v>
       </c>
       <c r="E26" t="n">
-        <v>288.3078190495372</v>
+        <v>288.3078190495371</v>
       </c>
       <c r="F26" t="n">
         <v>307.4796351375143</v>
@@ -2570,10 +2570,10 @@
         <v>308.8756490343882</v>
       </c>
       <c r="H26" t="n">
-        <v>221.4608654801276</v>
+        <v>221.4608654801275</v>
       </c>
       <c r="I26" t="n">
-        <v>47.84649830172175</v>
+        <v>47.84649830172174</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.58396643302937</v>
+        <v>70.58396643302936</v>
       </c>
       <c r="T26" t="n">
         <v>117.23348377348</v>
       </c>
       <c r="U26" t="n">
-        <v>149.763458957685</v>
+        <v>149.7634589576849</v>
       </c>
       <c r="V26" t="n">
         <v>231.079437717601</v>
@@ -2621,7 +2621,7 @@
         <v>275.6797954283045</v>
       </c>
       <c r="Y26" t="n">
-        <v>287.0763932245033</v>
+        <v>287.0763932245032</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.18977135211897</v>
+        <v>79.18977135211895</v>
       </c>
       <c r="C28" t="n">
-        <v>65.38976619751945</v>
+        <v>65.38976619751944</v>
       </c>
       <c r="D28" t="n">
-        <v>49.01113059509784</v>
+        <v>49.01113059509782</v>
       </c>
       <c r="E28" t="n">
-        <v>47.95888045087729</v>
+        <v>47.95888045087727</v>
       </c>
       <c r="F28" t="n">
-        <v>48.4258047790636</v>
+        <v>48.42580477906358</v>
       </c>
       <c r="G28" t="n">
-        <v>64.45951385139482</v>
+        <v>64.4595138513948</v>
       </c>
       <c r="H28" t="n">
-        <v>53.10622249820871</v>
+        <v>53.10622249820869</v>
       </c>
       <c r="I28" t="n">
-        <v>32.98363402659525</v>
+        <v>32.98363402659524</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66056912601975</v>
+        <v>34.66056912601974</v>
       </c>
       <c r="S28" t="n">
         <v>104.8427592779791</v>
       </c>
       <c r="T28" t="n">
-        <v>127.2874198703536</v>
+        <v>127.2874198703535</v>
       </c>
       <c r="U28" t="n">
         <v>181.7751483622459</v>
       </c>
       <c r="V28" t="n">
-        <v>155.5979077517446</v>
+        <v>155.5979077517445</v>
       </c>
       <c r="W28" t="n">
         <v>180.7647938223578</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>287.5730604774219</v>
+        <v>287.5730604774218</v>
       </c>
       <c r="C29" t="n">
         <v>275.5843774351036</v>
@@ -2810,7 +2810,7 @@
         <v>221.4608654801275</v>
       </c>
       <c r="I29" t="n">
-        <v>47.84649830172174</v>
+        <v>47.84649830172171</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.58396643302937</v>
+        <v>70.58396643302933</v>
       </c>
       <c r="T29" t="n">
         <v>117.23348377348</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.3389243442859</v>
+        <v>41.33892434428589</v>
       </c>
       <c r="S30" t="n">
         <v>145.9321186766747</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.18977135211895</v>
+        <v>79.18977135211892</v>
       </c>
       <c r="C31" t="n">
-        <v>65.38976619751944</v>
+        <v>65.38976619751941</v>
       </c>
       <c r="D31" t="n">
-        <v>49.01113059509782</v>
+        <v>49.0111305950978</v>
       </c>
       <c r="E31" t="n">
-        <v>47.95888045087727</v>
+        <v>47.95888045087725</v>
       </c>
       <c r="F31" t="n">
-        <v>48.42580477906358</v>
+        <v>48.42580477906355</v>
       </c>
       <c r="G31" t="n">
-        <v>64.4595138513948</v>
+        <v>64.45951385139477</v>
       </c>
       <c r="H31" t="n">
-        <v>53.10622249820869</v>
+        <v>53.10622249820867</v>
       </c>
       <c r="I31" t="n">
-        <v>32.98363402659524</v>
+        <v>32.98363402659521</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66056912601972</v>
+        <v>34.66056912601971</v>
       </c>
       <c r="S31" t="n">
         <v>104.8427592779791</v>
@@ -3004,7 +3004,7 @@
         <v>127.2874198703535</v>
       </c>
       <c r="U31" t="n">
-        <v>181.7751483622459</v>
+        <v>181.7751483622458</v>
       </c>
       <c r="V31" t="n">
         <v>155.5979077517445</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>284.9833563827019</v>
+        <v>284.9833563827017</v>
       </c>
       <c r="C32" t="n">
-        <v>272.9946733403837</v>
+        <v>272.9946733403835</v>
       </c>
       <c r="D32" t="n">
-        <v>263.9759773849116</v>
+        <v>263.9759773849115</v>
       </c>
       <c r="E32" t="n">
-        <v>285.7181149548172</v>
+        <v>285.718114954817</v>
       </c>
       <c r="F32" t="n">
-        <v>304.8899310427943</v>
+        <v>304.8899310427942</v>
       </c>
       <c r="G32" t="n">
-        <v>306.2859449396682</v>
+        <v>306.285944939668</v>
       </c>
       <c r="H32" t="n">
-        <v>218.8711613854076</v>
+        <v>218.8711613854074</v>
       </c>
       <c r="I32" t="n">
-        <v>45.25679420700176</v>
+        <v>45.25679420700162</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.99426233830938</v>
+        <v>67.99426233830924</v>
       </c>
       <c r="T32" t="n">
-        <v>114.64377967876</v>
+        <v>114.6437796787599</v>
       </c>
       <c r="U32" t="n">
-        <v>147.173754862965</v>
+        <v>147.1737548629648</v>
       </c>
       <c r="V32" t="n">
-        <v>228.489733622881</v>
+        <v>228.4897336228809</v>
       </c>
       <c r="W32" t="n">
-        <v>253.7898331008379</v>
+        <v>253.7898331008378</v>
       </c>
       <c r="X32" t="n">
-        <v>273.0900913335846</v>
+        <v>273.0900913335844</v>
       </c>
       <c r="Y32" t="n">
-        <v>284.4866891297833</v>
+        <v>284.4866891297831</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>41.3389243442859</v>
+        <v>41.33892434428589</v>
       </c>
       <c r="S33" t="n">
         <v>145.9321186766747</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>76.60006725739898</v>
+        <v>76.60006725739883</v>
       </c>
       <c r="C34" t="n">
-        <v>62.80006210279946</v>
+        <v>62.80006210279932</v>
       </c>
       <c r="D34" t="n">
-        <v>46.42142650037785</v>
+        <v>46.42142650037771</v>
       </c>
       <c r="E34" t="n">
-        <v>45.3691763561573</v>
+        <v>45.36917635615715</v>
       </c>
       <c r="F34" t="n">
-        <v>45.83610068434361</v>
+        <v>45.83610068434346</v>
       </c>
       <c r="G34" t="n">
-        <v>61.86980975667483</v>
+        <v>61.86980975667468</v>
       </c>
       <c r="H34" t="n">
-        <v>50.51651840348871</v>
+        <v>50.51651840348856</v>
       </c>
       <c r="I34" t="n">
-        <v>30.39392993187526</v>
+        <v>30.39392993187512</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>32.07086503129975</v>
+        <v>32.0708650312996</v>
       </c>
       <c r="S34" t="n">
-        <v>102.2530551832591</v>
+        <v>102.253055183259</v>
       </c>
       <c r="T34" t="n">
-        <v>124.6977157756336</v>
+        <v>124.6977157756334</v>
       </c>
       <c r="U34" t="n">
-        <v>179.1854442675259</v>
+        <v>179.1854442675257</v>
       </c>
       <c r="V34" t="n">
-        <v>153.0082036570246</v>
+        <v>153.0082036570244</v>
       </c>
       <c r="W34" t="n">
-        <v>178.1750897276378</v>
+        <v>178.1750897276377</v>
       </c>
       <c r="X34" t="n">
-        <v>123.8201917234409</v>
+        <v>123.8201917234408</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.6950594795086</v>
+        <v>114.6950594795085</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.3901961984365</v>
+        <v>237.3901961984367</v>
       </c>
       <c r="C35" t="n">
-        <v>225.4015131561183</v>
+        <v>225.4015131561184</v>
       </c>
       <c r="D35" t="n">
-        <v>216.3828172006463</v>
+        <v>216.3828172006464</v>
       </c>
       <c r="E35" t="n">
-        <v>238.1249547705518</v>
+        <v>238.1249547705519</v>
       </c>
       <c r="F35" t="n">
-        <v>257.2967708585289</v>
+        <v>257.2967708585291</v>
       </c>
       <c r="G35" t="n">
-        <v>258.6927847554028</v>
+        <v>258.692784755403</v>
       </c>
       <c r="H35" t="n">
-        <v>171.2780012011422</v>
+        <v>171.2780012011423</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.40110215404403</v>
+        <v>20.40110215404417</v>
       </c>
       <c r="T35" t="n">
-        <v>67.05061949449467</v>
+        <v>67.05061949449481</v>
       </c>
       <c r="U35" t="n">
-        <v>99.58059467869961</v>
+        <v>99.58059467869975</v>
       </c>
       <c r="V35" t="n">
-        <v>180.8965734386157</v>
+        <v>180.8965734386158</v>
       </c>
       <c r="W35" t="n">
-        <v>206.1966729165726</v>
+        <v>206.1966729165727</v>
       </c>
       <c r="X35" t="n">
-        <v>225.4969311493192</v>
+        <v>225.4969311493193</v>
       </c>
       <c r="Y35" t="n">
-        <v>236.8935289455179</v>
+        <v>236.8935289455181</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>41.3389243442859</v>
+        <v>41.33892434428589</v>
       </c>
       <c r="S36" t="n">
         <v>145.9321186766747</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.00690707313362</v>
+        <v>29.00690707313376</v>
       </c>
       <c r="C37" t="n">
-        <v>15.2069019185341</v>
+        <v>15.20690191853424</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>14.27664957240947</v>
+        <v>14.27664957240961</v>
       </c>
       <c r="H37" t="n">
-        <v>2.92335821922335</v>
+        <v>2.923358219223491</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>74.98253616848073</v>
+        <v>54.65989499899391</v>
       </c>
       <c r="T37" t="n">
-        <v>77.1045555913682</v>
+        <v>77.10455559136834</v>
       </c>
       <c r="U37" t="n">
-        <v>131.5922840832605</v>
+        <v>131.5922840832607</v>
       </c>
       <c r="V37" t="n">
-        <v>105.4150434727592</v>
+        <v>125.7376846422446</v>
       </c>
       <c r="W37" t="n">
-        <v>130.5819295433725</v>
+        <v>130.5819295433726</v>
       </c>
       <c r="X37" t="n">
-        <v>76.22703153917558</v>
+        <v>76.22703153917573</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.10189929524327</v>
+        <v>67.10189929524341</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>237.3901961984365</v>
+        <v>237.3901961984367</v>
       </c>
       <c r="C38" t="n">
-        <v>225.4015131561183</v>
+        <v>225.4015131561184</v>
       </c>
       <c r="D38" t="n">
-        <v>216.3828172006463</v>
+        <v>216.3828172006464</v>
       </c>
       <c r="E38" t="n">
-        <v>238.1249547705518</v>
+        <v>238.1249547705519</v>
       </c>
       <c r="F38" t="n">
-        <v>257.2967708585289</v>
+        <v>257.2967708585291</v>
       </c>
       <c r="G38" t="n">
-        <v>258.6927847554028</v>
+        <v>258.692784755403</v>
       </c>
       <c r="H38" t="n">
-        <v>171.2780012011422</v>
+        <v>171.2780012011423</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.40110215404403</v>
+        <v>20.40110215404417</v>
       </c>
       <c r="T38" t="n">
-        <v>67.05061949449467</v>
+        <v>67.05061949449481</v>
       </c>
       <c r="U38" t="n">
-        <v>99.58059467869961</v>
+        <v>99.58059467869975</v>
       </c>
       <c r="V38" t="n">
-        <v>180.8965734386157</v>
+        <v>180.8965734386158</v>
       </c>
       <c r="W38" t="n">
-        <v>206.1966729165726</v>
+        <v>206.1966729165727</v>
       </c>
       <c r="X38" t="n">
-        <v>225.4969311493192</v>
+        <v>225.4969311493193</v>
       </c>
       <c r="Y38" t="n">
-        <v>236.8935289455179</v>
+        <v>236.8935289455181</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>41.3389243442859</v>
+        <v>41.33892434428589</v>
       </c>
       <c r="S39" t="n">
         <v>145.9321186766747</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.00690707313362</v>
+        <v>29.00690707313376</v>
       </c>
       <c r="C40" t="n">
-        <v>15.2069019185341</v>
+        <v>15.20690191853424</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>14.27664957240947</v>
+        <v>14.27664957240961</v>
       </c>
       <c r="H40" t="n">
-        <v>2.92335821922335</v>
+        <v>2.923358219223491</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.32264116948691</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>54.65989499899376</v>
+        <v>54.65989499899391</v>
       </c>
       <c r="T40" t="n">
-        <v>77.1045555913682</v>
+        <v>77.10455559136834</v>
       </c>
       <c r="U40" t="n">
-        <v>131.5922840832605</v>
+        <v>131.5922840832607</v>
       </c>
       <c r="V40" t="n">
-        <v>105.4150434727592</v>
+        <v>125.7376846422446</v>
       </c>
       <c r="W40" t="n">
-        <v>130.5819295433725</v>
+        <v>130.5819295433726</v>
       </c>
       <c r="X40" t="n">
-        <v>76.22703153917558</v>
+        <v>76.22703153917573</v>
       </c>
       <c r="Y40" t="n">
-        <v>67.10189929524327</v>
+        <v>67.10189929524341</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>237.3901961984367</v>
+        <v>237.3901961984365</v>
       </c>
       <c r="C41" t="n">
-        <v>225.4015131561184</v>
+        <v>225.4015131561183</v>
       </c>
       <c r="D41" t="n">
-        <v>216.3828172006464</v>
+        <v>216.3828172006463</v>
       </c>
       <c r="E41" t="n">
-        <v>238.1249547705519</v>
+        <v>238.1249547705518</v>
       </c>
       <c r="F41" t="n">
-        <v>257.296770858529</v>
+        <v>257.2967708585289</v>
       </c>
       <c r="G41" t="n">
-        <v>258.692784755403</v>
+        <v>258.6927847554028</v>
       </c>
       <c r="H41" t="n">
-        <v>171.2780012011423</v>
+        <v>171.2780012011422</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>20.40110215404414</v>
+        <v>20.40110215404403</v>
       </c>
       <c r="T41" t="n">
-        <v>67.05061949449478</v>
+        <v>67.05061949449467</v>
       </c>
       <c r="U41" t="n">
-        <v>99.58059467869973</v>
+        <v>99.58059467869961</v>
       </c>
       <c r="V41" t="n">
-        <v>180.8965734386158</v>
+        <v>180.8965734386157</v>
       </c>
       <c r="W41" t="n">
-        <v>206.1966729165727</v>
+        <v>206.1966729165726</v>
       </c>
       <c r="X41" t="n">
-        <v>225.4969311493193</v>
+        <v>225.4969311493192</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.8935289455181</v>
+        <v>236.8935289455179</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>41.3389243442859</v>
+        <v>41.33892434428589</v>
       </c>
       <c r="S42" t="n">
         <v>145.9321186766747</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.00690707313373</v>
+        <v>29.00690707313362</v>
       </c>
       <c r="C43" t="n">
-        <v>15.20690191853421</v>
+        <v>15.2069019185341</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,16 +3910,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>14.27664957240959</v>
+        <v>14.27664957240947</v>
       </c>
       <c r="H43" t="n">
-        <v>2.923358219223463</v>
+        <v>2.923358219223349</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.350605064747209</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3940,31 +3940,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.97203610473861</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>54.65989499899388</v>
+        <v>54.65989499899376</v>
       </c>
       <c r="T43" t="n">
-        <v>77.10455559136831</v>
+        <v>77.1045555913682</v>
       </c>
       <c r="U43" t="n">
-        <v>131.5922840832606</v>
+        <v>151.9149252527475</v>
       </c>
       <c r="V43" t="n">
-        <v>105.4150434727593</v>
+        <v>105.4150434727592</v>
       </c>
       <c r="W43" t="n">
-        <v>130.5819295433726</v>
+        <v>130.5819295433725</v>
       </c>
       <c r="X43" t="n">
-        <v>76.2270315391757</v>
+        <v>76.22703153917558</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.10189929524338</v>
+        <v>67.10189929524327</v>
       </c>
     </row>
     <row r="44">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>41.3389243442859</v>
+        <v>41.33892434428589</v>
       </c>
       <c r="S45" t="n">
         <v>145.9321186766747</v>
@@ -4150,7 +4150,7 @@
         <v>14.27664957240956</v>
       </c>
       <c r="H46" t="n">
-        <v>2.923358219223435</v>
+        <v>2.923358219223434</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.32264116948601</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>54.65989499899385</v>
+        <v>74.98253616847984</v>
       </c>
       <c r="T46" t="n">
         <v>77.10455559136828</v>
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="C8" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="D8" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="E8" t="n">
         <v>21.02234760148574</v>
@@ -4802,52 +4802,52 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="J8" t="n">
-        <v>10.71035629773655</v>
+        <v>10.3099691464193</v>
       </c>
       <c r="K8" t="n">
-        <v>20.6199382928386</v>
+        <v>10.3099691464193</v>
       </c>
       <c r="L8" t="n">
-        <v>30.52952028794065</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="M8" t="n">
-        <v>40.03871513172544</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="N8" t="n">
-        <v>40.03871513172544</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="O8" t="n">
-        <v>40.03871513172544</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="P8" t="n">
-        <v>40.03871513172544</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="Q8" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="R8" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="S8" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="T8" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="U8" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="V8" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="W8" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="X8" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="Y8" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.02234760148574</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="C9" t="n">
         <v>10.91156095206012</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="F9" t="n">
         <v>0.8007743026345088</v>
@@ -4884,16 +4884,16 @@
         <v>10.71035629773655</v>
       </c>
       <c r="K9" t="n">
-        <v>10.71035629773655</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="L9" t="n">
-        <v>20.6199382928386</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="M9" t="n">
-        <v>20.6199382928386</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="N9" t="n">
-        <v>30.52952028794065</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="O9" t="n">
         <v>40.03871513172544</v>
@@ -4905,28 +4905,28 @@
         <v>40.03871513172544</v>
       </c>
       <c r="R9" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="S9" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="T9" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="U9" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="V9" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="W9" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="X9" t="n">
-        <v>40.03871513172544</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="Y9" t="n">
-        <v>31.13313425091136</v>
+        <v>10.91156095206012</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.81714183287421</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="C10" t="n">
-        <v>19.81714183287421</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="D10" t="n">
-        <v>19.81714183287421</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="E10" t="n">
-        <v>19.81714183287421</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F10" t="n">
-        <v>19.81714183287421</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="G10" t="n">
-        <v>19.81714183287421</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H10" t="n">
-        <v>19.81714183287421</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="J10" t="n">
         <v>0.8007743026345088</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="M10" t="n">
-        <v>10.3099691464193</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="N10" t="n">
-        <v>20.21955114152135</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="O10" t="n">
         <v>30.12913313662339</v>
@@ -4987,25 +4987,25 @@
         <v>29.92792848229982</v>
       </c>
       <c r="S10" t="n">
-        <v>19.81714183287421</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="T10" t="n">
-        <v>19.81714183287421</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="U10" t="n">
-        <v>19.81714183287421</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="V10" t="n">
         <v>19.81714183287421</v>
       </c>
       <c r="W10" t="n">
-        <v>19.81714183287421</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="X10" t="n">
-        <v>19.81714183287421</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.81714183287421</v>
+        <v>0.8007743026345088</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1539.556857473304</v>
+        <v>960.3716377999571</v>
       </c>
       <c r="C11" t="n">
-        <v>1247.074142130924</v>
+        <v>960.3716377999571</v>
       </c>
       <c r="D11" t="n">
-        <v>963.7012206829606</v>
+        <v>676.9987163519935</v>
       </c>
       <c r="E11" t="n">
-        <v>963.7012206829606</v>
+        <v>676.9987163519935</v>
       </c>
       <c r="F11" t="n">
-        <v>639.0010733179438</v>
+        <v>676.9987163519935</v>
       </c>
       <c r="G11" t="n">
-        <v>350.8884539396293</v>
+        <v>350.8884539396294</v>
       </c>
       <c r="H11" t="n">
         <v>113.075952693185</v>
@@ -5045,19 +5045,19 @@
         <v>358.4291874830505</v>
       </c>
       <c r="L11" t="n">
-        <v>790.2494441526674</v>
+        <v>720.5735509263227</v>
       </c>
       <c r="M11" t="n">
-        <v>1276.882340914361</v>
+        <v>1207.206447688016</v>
       </c>
       <c r="N11" t="n">
-        <v>1750.118638310451</v>
+        <v>1680.442745084106</v>
       </c>
       <c r="O11" t="n">
-        <v>2144.739265218383</v>
+        <v>2075.063371992038</v>
       </c>
       <c r="P11" t="n">
-        <v>2449.381380552373</v>
+        <v>2379.705487326029</v>
       </c>
       <c r="Q11" t="n">
         <v>2531.5749550848</v>
@@ -5066,25 +5066,25 @@
         <v>2531.5749550848</v>
       </c>
       <c r="S11" t="n">
-        <v>2446.163361966738</v>
+        <v>2446.163361966737</v>
       </c>
       <c r="T11" t="n">
-        <v>2313.631044262362</v>
+        <v>2313.631044262361</v>
       </c>
       <c r="U11" t="n">
         <v>2148.240165765859</v>
       </c>
       <c r="V11" t="n">
-        <v>2148.240165765859</v>
+        <v>1900.711934986613</v>
       </c>
       <c r="W11" t="n">
-        <v>2148.240165765859</v>
+        <v>1627.628048169028</v>
       </c>
       <c r="X11" t="n">
-        <v>2148.240165765859</v>
+        <v>1569.054946092513</v>
       </c>
       <c r="Y11" t="n">
-        <v>1844.14935366651</v>
+        <v>1264.964133993163</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>916.8525970584473</v>
+        <v>916.8525970584481</v>
       </c>
       <c r="C12" t="n">
-        <v>755.1489242994021</v>
+        <v>755.1489242994028</v>
       </c>
       <c r="D12" t="n">
-        <v>616.3102872896141</v>
+        <v>616.3102872896148</v>
       </c>
       <c r="E12" t="n">
-        <v>469.2822773464852</v>
+        <v>469.2822773464861</v>
       </c>
       <c r="F12" t="n">
-        <v>334.5884792963597</v>
+        <v>334.5884792963604</v>
       </c>
       <c r="G12" t="n">
-        <v>206.1503391504152</v>
+        <v>206.1503391504149</v>
       </c>
       <c r="H12" t="n">
         <v>109.0167463785074</v>
@@ -5124,16 +5124,16 @@
         <v>413.2166240983116</v>
       </c>
       <c r="L12" t="n">
-        <v>735.1471015079863</v>
+        <v>840.8288884799132</v>
       </c>
       <c r="M12" t="n">
-        <v>1292.286959772228</v>
+        <v>1397.968746744155</v>
       </c>
       <c r="N12" t="n">
-        <v>1877.567555270603</v>
+        <v>1521.129018650604</v>
       </c>
       <c r="O12" t="n">
-        <v>2337.476724739038</v>
+        <v>1981.038188119039</v>
       </c>
       <c r="P12" t="n">
         <v>2337.476724739038</v>
@@ -5142,13 +5142,13 @@
         <v>2531.5749550848</v>
       </c>
       <c r="R12" t="n">
-        <v>2489.818465848147</v>
+        <v>2489.818465848148</v>
       </c>
       <c r="S12" t="n">
         <v>2342.412285366658</v>
       </c>
       <c r="T12" t="n">
-        <v>2154.897535411935</v>
+        <v>2154.897535411936</v>
       </c>
       <c r="U12" t="n">
         <v>1936.421845630691</v>
@@ -5160,10 +5160,10 @@
         <v>1466.710354312335</v>
       </c>
       <c r="X12" t="n">
-        <v>1268.793366190129</v>
+        <v>1268.79336619013</v>
       </c>
       <c r="Y12" t="n">
-        <v>1076.272039839708</v>
+        <v>1076.272039839709</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>308.5431619184739</v>
+        <v>177.9141783898579</v>
       </c>
       <c r="C13" t="n">
-        <v>228.3782357049669</v>
+        <v>114.2523489491205</v>
       </c>
       <c r="D13" t="n">
-        <v>228.3782357049669</v>
+        <v>50.631499101696</v>
       </c>
       <c r="E13" t="n">
-        <v>165.8202647910987</v>
+        <v>50.631499101696</v>
       </c>
       <c r="F13" t="n">
-        <v>165.8202647910987</v>
+        <v>50.631499101696</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8202647910987</v>
+        <v>50.631499101696</v>
       </c>
       <c r="H13" t="n">
-        <v>98.06295847588547</v>
+        <v>50.631499101696</v>
       </c>
       <c r="I13" t="n">
         <v>50.631499101696</v>
       </c>
       <c r="J13" t="n">
-        <v>96.30823560199542</v>
+        <v>96.30823560199551</v>
       </c>
       <c r="K13" t="n">
         <v>245.3024804191787</v>
@@ -5206,10 +5206,10 @@
         <v>469.0514186062464</v>
       </c>
       <c r="M13" t="n">
-        <v>712.1149737064383</v>
+        <v>712.1149737064381</v>
       </c>
       <c r="N13" t="n">
-        <v>954.7180978637575</v>
+        <v>954.7180978637573</v>
       </c>
       <c r="O13" t="n">
         <v>1174.575435216289</v>
@@ -5218,10 +5218,10 @@
         <v>1354.070502065729</v>
       </c>
       <c r="Q13" t="n">
-        <v>1423.949153884687</v>
+        <v>1423.949153884686</v>
       </c>
       <c r="R13" t="n">
-        <v>1374.823820672695</v>
+        <v>1374.823820672694</v>
       </c>
       <c r="S13" t="n">
         <v>1254.807386297107</v>
@@ -5230,19 +5230,19 @@
         <v>1112.119577585788</v>
       </c>
       <c r="U13" t="n">
-        <v>1045.022642815315</v>
+        <v>914.3936592866989</v>
       </c>
       <c r="V13" t="n">
-        <v>873.7383816985503</v>
+        <v>743.1093981699344</v>
       </c>
       <c r="W13" t="n">
-        <v>677.0330235407622</v>
+        <v>546.4040400121463</v>
       </c>
       <c r="X13" t="n">
-        <v>535.2316027609509</v>
+        <v>404.6026192323349</v>
       </c>
       <c r="Y13" t="n">
-        <v>402.6474872780408</v>
+        <v>272.0185037494248</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1599.51625562847</v>
+        <v>726.3656427227781</v>
       </c>
       <c r="C14" t="n">
-        <v>1307.033540286091</v>
+        <v>433.8829273803988</v>
       </c>
       <c r="D14" t="n">
-        <v>1307.033540286091</v>
+        <v>433.8829273803988</v>
       </c>
       <c r="E14" t="n">
-        <v>1001.69886371701</v>
+        <v>433.8829273803988</v>
       </c>
       <c r="F14" t="n">
-        <v>676.9987163519935</v>
+        <v>433.8829273803988</v>
       </c>
       <c r="G14" t="n">
-        <v>350.8884539396293</v>
+        <v>350.8884539396292</v>
       </c>
       <c r="H14" t="n">
-        <v>113.075952693185</v>
+        <v>113.0759526931849</v>
       </c>
       <c r="I14" t="n">
         <v>50.631499101696</v>
       </c>
       <c r="J14" t="n">
-        <v>50.631499101696</v>
+        <v>167.7728174862798</v>
       </c>
       <c r="K14" t="n">
-        <v>358.4291874830505</v>
+        <v>475.5705058676343</v>
       </c>
       <c r="L14" t="n">
-        <v>790.2494441526674</v>
+        <v>720.5735509263227</v>
       </c>
       <c r="M14" t="n">
-        <v>1276.882340914361</v>
+        <v>1207.206447688016</v>
       </c>
       <c r="N14" t="n">
-        <v>1750.118638310451</v>
+        <v>1680.442745084106</v>
       </c>
       <c r="O14" t="n">
-        <v>2144.739265218383</v>
+        <v>2075.063371992038</v>
       </c>
       <c r="P14" t="n">
-        <v>2449.381380552373</v>
+        <v>2379.705487326029</v>
       </c>
       <c r="Q14" t="n">
         <v>2531.5749550848</v>
@@ -5303,25 +5303,25 @@
         <v>2531.5749550848</v>
       </c>
       <c r="S14" t="n">
-        <v>2531.5749550848</v>
+        <v>2446.163361966738</v>
       </c>
       <c r="T14" t="n">
-        <v>2531.5749550848</v>
+        <v>2313.631044262362</v>
       </c>
       <c r="U14" t="n">
-        <v>2455.727794700272</v>
+        <v>2148.240165765859</v>
       </c>
       <c r="V14" t="n">
-        <v>2208.199563921026</v>
+        <v>1900.711934986613</v>
       </c>
       <c r="W14" t="n">
-        <v>2208.199563921026</v>
+        <v>1627.628048169027</v>
       </c>
       <c r="X14" t="n">
-        <v>2208.199563921026</v>
+        <v>1335.048951015334</v>
       </c>
       <c r="Y14" t="n">
-        <v>1904.108751821677</v>
+        <v>1030.958138915984</v>
       </c>
     </row>
     <row r="15">
@@ -5331,61 +5331,61 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>916.8525970584477</v>
+        <v>916.8525970584473</v>
       </c>
       <c r="C15" t="n">
-        <v>755.1489242994026</v>
+        <v>755.1489242994021</v>
       </c>
       <c r="D15" t="n">
-        <v>616.3102872896145</v>
+        <v>616.3102872896141</v>
       </c>
       <c r="E15" t="n">
-        <v>469.2822773464857</v>
+        <v>469.2822773464852</v>
       </c>
       <c r="F15" t="n">
-        <v>334.5884792963601</v>
+        <v>334.5884792963597</v>
       </c>
       <c r="G15" t="n">
-        <v>206.1503391504157</v>
+        <v>206.1503391504152</v>
       </c>
       <c r="H15" t="n">
-        <v>109.0167463785078</v>
+        <v>109.0167463785074</v>
       </c>
       <c r="I15" t="n">
         <v>50.631499101696</v>
       </c>
       <c r="J15" t="n">
-        <v>50.631499101696</v>
+        <v>137.7723726368144</v>
       </c>
       <c r="K15" t="n">
-        <v>326.0757505631932</v>
+        <v>137.7723726368144</v>
       </c>
       <c r="L15" t="n">
-        <v>753.6880149447948</v>
+        <v>565.384637018416</v>
       </c>
       <c r="M15" t="n">
-        <v>1129.946653497991</v>
+        <v>1122.524495282658</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.227248996366</v>
+        <v>1707.805090781033</v>
       </c>
       <c r="O15" t="n">
-        <v>2175.1364184648</v>
+        <v>1981.038188119039</v>
       </c>
       <c r="P15" t="n">
-        <v>2531.5749550848</v>
+        <v>2337.476724739038</v>
       </c>
       <c r="Q15" t="n">
         <v>2531.5749550848</v>
       </c>
       <c r="R15" t="n">
-        <v>2489.818465848147</v>
+        <v>2489.818465848148</v>
       </c>
       <c r="S15" t="n">
         <v>2342.412285366658</v>
       </c>
       <c r="T15" t="n">
-        <v>2154.897535411936</v>
+        <v>2154.897535411935</v>
       </c>
       <c r="U15" t="n">
         <v>1936.421845630691</v>
@@ -5397,10 +5397,10 @@
         <v>1466.710354312335</v>
       </c>
       <c r="X15" t="n">
-        <v>1268.79336619013</v>
+        <v>1268.793366190129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1076.272039839709</v>
+        <v>1076.272039839708</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>514.418900794346</v>
+        <v>262.1745814778403</v>
       </c>
       <c r="C16" t="n">
-        <v>434.2539745808391</v>
+        <v>182.0096552643335</v>
       </c>
       <c r="D16" t="n">
-        <v>370.6331247334147</v>
+        <v>118.3888054169091</v>
       </c>
       <c r="E16" t="n">
-        <v>308.0751538195464</v>
+        <v>118.3888054169091</v>
       </c>
       <c r="F16" t="n">
-        <v>245.0455421701363</v>
+        <v>118.3888054169091</v>
       </c>
       <c r="G16" t="n">
-        <v>165.8202647910987</v>
+        <v>118.3888054169091</v>
       </c>
       <c r="H16" t="n">
-        <v>98.06295847588549</v>
+        <v>50.631499101696</v>
       </c>
       <c r="I16" t="n">
         <v>50.631499101696</v>
       </c>
       <c r="J16" t="n">
-        <v>96.30823560199551</v>
+        <v>96.30823560199565</v>
       </c>
       <c r="K16" t="n">
-        <v>245.3024804191787</v>
+        <v>245.3024804191789</v>
       </c>
       <c r="L16" t="n">
-        <v>469.0514186062463</v>
+        <v>469.0514186062468</v>
       </c>
       <c r="M16" t="n">
-        <v>712.1149737064383</v>
+        <v>712.1149737064386</v>
       </c>
       <c r="N16" t="n">
-        <v>954.7180978637574</v>
+        <v>954.7180978637579</v>
       </c>
       <c r="O16" t="n">
         <v>1174.575435216289</v>
@@ -5461,25 +5461,25 @@
         <v>1374.823820672695</v>
       </c>
       <c r="S16" t="n">
-        <v>1254.807386297107</v>
+        <v>1254.807386297108</v>
       </c>
       <c r="T16" t="n">
         <v>1112.119577585788</v>
       </c>
       <c r="U16" t="n">
-        <v>960.0886981738321</v>
+        <v>914.3936592867001</v>
       </c>
       <c r="V16" t="n">
-        <v>788.8044370570674</v>
+        <v>743.1093981699356</v>
       </c>
       <c r="W16" t="n">
-        <v>788.8044370570674</v>
+        <v>546.4040400121477</v>
       </c>
       <c r="X16" t="n">
-        <v>647.0030162772561</v>
+        <v>404.6026192323364</v>
       </c>
       <c r="Y16" t="n">
-        <v>514.418900794346</v>
+        <v>272.0185037494264</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1137.219479298934</v>
       </c>
       <c r="D17" t="n">
-        <v>931.9950636196966</v>
+        <v>931.9950636196967</v>
       </c>
       <c r="E17" t="n">
-        <v>704.8088928193424</v>
+        <v>704.8088928193426</v>
       </c>
       <c r="F17" t="n">
-        <v>458.2572512230518</v>
+        <v>458.257251223052</v>
       </c>
       <c r="G17" t="n">
         <v>210.2954945794141</v>
@@ -5516,10 +5516,10 @@
         <v>167.7728174862798</v>
       </c>
       <c r="K17" t="n">
-        <v>288.753294256706</v>
+        <v>288.7532942567058</v>
       </c>
       <c r="L17" t="n">
-        <v>720.5735509263228</v>
+        <v>720.5735509263227</v>
       </c>
       <c r="M17" t="n">
         <v>1207.206447688016</v>
@@ -5549,7 +5549,7 @@
         <v>2382.685683072038</v>
       </c>
       <c r="V17" t="n">
-        <v>2213.305958061519</v>
+        <v>2213.305958061518</v>
       </c>
       <c r="W17" t="n">
         <v>2018.370577012658</v>
@@ -5592,16 +5592,16 @@
         <v>50.631499101696</v>
       </c>
       <c r="J18" t="n">
-        <v>137.7723726368144</v>
+        <v>50.631499101696</v>
       </c>
       <c r="K18" t="n">
-        <v>413.2166240983116</v>
+        <v>326.0757505631932</v>
       </c>
       <c r="L18" t="n">
-        <v>840.8288884799132</v>
+        <v>753.6880149447948</v>
       </c>
       <c r="M18" t="n">
-        <v>1397.968746744155</v>
+        <v>935.8484231522277</v>
       </c>
       <c r="N18" t="n">
         <v>1521.129018650603</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.724691156788</v>
+        <v>53.72469115678795</v>
       </c>
       <c r="C19" t="n">
-        <v>51.70827071200734</v>
+        <v>51.70827071200731</v>
       </c>
       <c r="D19" t="n">
-        <v>51.70827071200734</v>
+        <v>51.70827071200731</v>
       </c>
       <c r="E19" t="n">
-        <v>51.70827071200734</v>
+        <v>51.70827071200731</v>
       </c>
       <c r="F19" t="n">
-        <v>51.70827071200734</v>
+        <v>51.70827071200731</v>
       </c>
       <c r="G19" t="n">
         <v>50.631499101696</v>
@@ -5698,25 +5698,25 @@
         <v>782.3679601895349</v>
       </c>
       <c r="S19" t="n">
-        <v>740.5000315826737</v>
+        <v>583.5783586829535</v>
       </c>
       <c r="T19" t="n">
-        <v>675.9607286400808</v>
+        <v>519.0390557403607</v>
       </c>
       <c r="U19" t="n">
-        <v>399.461643209998</v>
+        <v>399.4616432099979</v>
       </c>
       <c r="V19" t="n">
-        <v>306.3258878619597</v>
+        <v>306.3258878619595</v>
       </c>
       <c r="W19" t="n">
-        <v>187.7690354728979</v>
+        <v>187.7690354728977</v>
       </c>
       <c r="X19" t="n">
-        <v>124.1161204618127</v>
+        <v>124.1161204618125</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.68051074762879</v>
+        <v>69.6805107476287</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1351.553688872587</v>
+        <v>1351.553688872588</v>
       </c>
       <c r="C20" t="n">
-        <v>1137.219479298933</v>
+        <v>1137.219479298934</v>
       </c>
       <c r="D20" t="n">
-        <v>931.9950636196961</v>
+        <v>931.9950636196968</v>
       </c>
       <c r="E20" t="n">
-        <v>704.808892819342</v>
+        <v>704.8088928193428</v>
       </c>
       <c r="F20" t="n">
-        <v>458.2572512230513</v>
+        <v>458.2572512230522</v>
       </c>
       <c r="G20" t="n">
         <v>210.2954945794141</v>
@@ -5756,7 +5756,7 @@
         <v>475.5705058676343</v>
       </c>
       <c r="L20" t="n">
-        <v>907.3907625372511</v>
+        <v>907.3907625372512</v>
       </c>
       <c r="M20" t="n">
         <v>1394.023659298945</v>
@@ -5786,16 +5786,16 @@
         <v>2382.685683072038</v>
       </c>
       <c r="V20" t="n">
-        <v>2213.305958061518</v>
+        <v>2213.305958061519</v>
       </c>
       <c r="W20" t="n">
         <v>2018.370577012658</v>
       </c>
       <c r="X20" t="n">
-        <v>1803.93998562769</v>
+        <v>1803.939985627691</v>
       </c>
       <c r="Y20" t="n">
-        <v>1577.997679297067</v>
+        <v>1577.997679297068</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>50.631499101696</v>
       </c>
       <c r="J21" t="n">
-        <v>137.7723726368144</v>
+        <v>50.631499101696</v>
       </c>
       <c r="K21" t="n">
-        <v>413.2166240983116</v>
+        <v>50.631499101696</v>
       </c>
       <c r="L21" t="n">
-        <v>840.8288884799132</v>
+        <v>478.2437634832976</v>
       </c>
       <c r="M21" t="n">
-        <v>1397.968746744155</v>
+        <v>1035.38362174754</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.227248996366</v>
+        <v>1620.664217245915</v>
       </c>
       <c r="O21" t="n">
-        <v>2175.1364184648</v>
+        <v>2080.573386714349</v>
       </c>
       <c r="P21" t="n">
-        <v>2531.5749550848</v>
+        <v>2437.011923334349</v>
       </c>
       <c r="Q21" t="n">
         <v>2531.574955084799</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>210.6463640565078</v>
+        <v>53.72469115678795</v>
       </c>
       <c r="C22" t="n">
-        <v>208.6299436117272</v>
+        <v>51.70827071200731</v>
       </c>
       <c r="D22" t="n">
-        <v>208.6299436117272</v>
+        <v>51.70827071200731</v>
       </c>
       <c r="E22" t="n">
-        <v>208.6299436117272</v>
+        <v>51.70827071200731</v>
       </c>
       <c r="F22" t="n">
-        <v>208.6299436117272</v>
+        <v>51.70827071200731</v>
       </c>
       <c r="G22" t="n">
-        <v>207.5531720014158</v>
+        <v>50.631499101696</v>
       </c>
       <c r="H22" t="n">
         <v>50.631499101696</v>
@@ -5935,25 +5935,25 @@
         <v>782.3679601895349</v>
       </c>
       <c r="S22" t="n">
-        <v>740.5000315826737</v>
+        <v>583.5783586829535</v>
       </c>
       <c r="T22" t="n">
-        <v>675.9607286400808</v>
+        <v>519.0390557403607</v>
       </c>
       <c r="U22" t="n">
-        <v>556.3833161097178</v>
+        <v>399.4616432099979</v>
       </c>
       <c r="V22" t="n">
-        <v>463.2475607616795</v>
+        <v>306.3258878619595</v>
       </c>
       <c r="W22" t="n">
-        <v>344.6907083726177</v>
+        <v>187.7690354728977</v>
       </c>
       <c r="X22" t="n">
-        <v>281.0377933615325</v>
+        <v>124.1161204618125</v>
       </c>
       <c r="Y22" t="n">
-        <v>226.6021836473486</v>
+        <v>69.6805107476287</v>
       </c>
     </row>
     <row r="23">
@@ -5972,40 +5972,40 @@
         <v>931.9950636196966</v>
       </c>
       <c r="E23" t="n">
-        <v>704.8088928193424</v>
+        <v>704.8088928193425</v>
       </c>
       <c r="F23" t="n">
-        <v>458.2572512230518</v>
+        <v>458.257251223052</v>
       </c>
       <c r="G23" t="n">
         <v>210.2954945794141</v>
       </c>
       <c r="H23" t="n">
-        <v>50.631499101696</v>
+        <v>50.63149910169599</v>
       </c>
       <c r="I23" t="n">
-        <v>50.631499101696</v>
+        <v>50.63149910169599</v>
       </c>
       <c r="J23" t="n">
-        <v>50.631499101696</v>
+        <v>167.7728174862798</v>
       </c>
       <c r="K23" t="n">
-        <v>358.4291874830505</v>
+        <v>475.5705058676343</v>
       </c>
       <c r="L23" t="n">
-        <v>790.2494441526674</v>
+        <v>720.5735509263227</v>
       </c>
       <c r="M23" t="n">
-        <v>1276.882340914361</v>
+        <v>1207.206447688016</v>
       </c>
       <c r="N23" t="n">
-        <v>1750.118638310451</v>
+        <v>1680.442745084106</v>
       </c>
       <c r="O23" t="n">
-        <v>2144.739265218383</v>
+        <v>2075.063371992038</v>
       </c>
       <c r="P23" t="n">
-        <v>2449.381380552373</v>
+        <v>2379.705487326029</v>
       </c>
       <c r="Q23" t="n">
         <v>2531.5749550848</v>
@@ -6014,7 +6014,7 @@
         <v>2531.5749550848</v>
       </c>
       <c r="S23" t="n">
-        <v>2524.311867735464</v>
+        <v>2524.311867735463</v>
       </c>
       <c r="T23" t="n">
         <v>2469.928055799814</v>
@@ -6023,7 +6023,7 @@
         <v>2382.685683072038</v>
       </c>
       <c r="V23" t="n">
-        <v>2213.305958061519</v>
+        <v>2213.305958061518</v>
       </c>
       <c r="W23" t="n">
         <v>2018.370577012658</v>
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>916.8525970584468</v>
+        <v>916.8525970584476</v>
       </c>
       <c r="C24" t="n">
-        <v>755.1489242994015</v>
+        <v>755.1489242994023</v>
       </c>
       <c r="D24" t="n">
-        <v>616.3102872896136</v>
+        <v>616.3102872896144</v>
       </c>
       <c r="E24" t="n">
-        <v>469.2822773464849</v>
+        <v>469.2822773464856</v>
       </c>
       <c r="F24" t="n">
         <v>334.5884792963592</v>
@@ -6063,52 +6063,52 @@
         <v>109.0167463785074</v>
       </c>
       <c r="I24" t="n">
-        <v>50.631499101696</v>
+        <v>50.63149910169599</v>
       </c>
       <c r="J24" t="n">
-        <v>50.631499101696</v>
+        <v>137.7723726368144</v>
       </c>
       <c r="K24" t="n">
-        <v>145.1945308521471</v>
+        <v>378.7085648879867</v>
       </c>
       <c r="L24" t="n">
-        <v>572.8067952337486</v>
+        <v>378.7085648879867</v>
       </c>
       <c r="M24" t="n">
-        <v>1129.946653497991</v>
+        <v>935.8484231522286</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.227248996366</v>
+        <v>1521.129018650604</v>
       </c>
       <c r="O24" t="n">
-        <v>2175.1364184648</v>
+        <v>1981.038188119039</v>
       </c>
       <c r="P24" t="n">
-        <v>2531.5749550848</v>
+        <v>2337.476724739038</v>
       </c>
       <c r="Q24" t="n">
         <v>2531.5749550848</v>
       </c>
       <c r="R24" t="n">
-        <v>2489.818465848146</v>
+        <v>2489.818465848147</v>
       </c>
       <c r="S24" t="n">
-        <v>2342.412285366657</v>
+        <v>2342.412285366658</v>
       </c>
       <c r="T24" t="n">
-        <v>2154.897535411934</v>
+        <v>2154.897535411935</v>
       </c>
       <c r="U24" t="n">
-        <v>1936.42184563069</v>
+        <v>1936.421845630691</v>
       </c>
       <c r="V24" t="n">
-        <v>1708.026223079024</v>
+        <v>1708.026223079025</v>
       </c>
       <c r="W24" t="n">
-        <v>1466.710354312334</v>
+        <v>1466.710354312335</v>
       </c>
       <c r="X24" t="n">
-        <v>1268.793366190129</v>
+        <v>1268.79336619013</v>
       </c>
       <c r="Y24" t="n">
         <v>1076.272039839708</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.724691156788</v>
+        <v>53.72469115678794</v>
       </c>
       <c r="C25" t="n">
-        <v>51.70827071200734</v>
+        <v>51.70827071200731</v>
       </c>
       <c r="D25" t="n">
-        <v>51.70827071200734</v>
+        <v>51.70827071200731</v>
       </c>
       <c r="E25" t="n">
-        <v>51.70827071200734</v>
+        <v>51.70827071200731</v>
       </c>
       <c r="F25" t="n">
-        <v>51.70827071200734</v>
+        <v>51.70827071200731</v>
       </c>
       <c r="G25" t="n">
-        <v>50.631499101696</v>
+        <v>50.63149910169599</v>
       </c>
       <c r="H25" t="n">
-        <v>50.631499101696</v>
+        <v>50.63149910169599</v>
       </c>
       <c r="I25" t="n">
-        <v>50.631499101696</v>
+        <v>50.63149910169599</v>
       </c>
       <c r="J25" t="n">
-        <v>50.631499101696</v>
+        <v>50.63149910169599</v>
       </c>
       <c r="K25" t="n">
         <v>111.9547763562302</v>
@@ -6166,31 +6166,31 @@
         <v>782.3679601895349</v>
       </c>
       <c r="Q25" t="n">
-        <v>764.2143883665666</v>
+        <v>782.3679601895349</v>
       </c>
       <c r="R25" t="n">
-        <v>764.2143883665666</v>
+        <v>782.3679601895349</v>
       </c>
       <c r="S25" t="n">
-        <v>722.3464597597055</v>
+        <v>740.5000315826737</v>
       </c>
       <c r="T25" t="n">
-        <v>657.8071568171125</v>
+        <v>519.0390557403607</v>
       </c>
       <c r="U25" t="n">
-        <v>399.461643209998</v>
+        <v>399.4616432099978</v>
       </c>
       <c r="V25" t="n">
-        <v>306.3258878619597</v>
+        <v>306.3258878619595</v>
       </c>
       <c r="W25" t="n">
-        <v>187.7690354728979</v>
+        <v>187.7690354728977</v>
       </c>
       <c r="X25" t="n">
-        <v>124.1161204618127</v>
+        <v>124.1161204618125</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.68051074762879</v>
+        <v>69.68051074762869</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>1803.368283428341</v>
       </c>
       <c r="C26" t="n">
-        <v>1525.000225413084</v>
+        <v>1525.000225413085</v>
       </c>
       <c r="D26" t="n">
         <v>1255.741961292244</v>
       </c>
       <c r="E26" t="n">
-        <v>964.5219420502875</v>
+        <v>964.5219420502877</v>
       </c>
       <c r="F26" t="n">
-        <v>653.9364520123943</v>
+        <v>653.9364520123945</v>
       </c>
       <c r="G26" t="n">
         <v>341.9408469271539</v>
@@ -6221,13 +6221,13 @@
         <v>118.2430030078329</v>
       </c>
       <c r="I26" t="n">
-        <v>69.91320674346748</v>
+        <v>69.9132067434675</v>
       </c>
       <c r="J26" t="n">
-        <v>288.5592683370141</v>
+        <v>288.5592683370143</v>
       </c>
       <c r="K26" t="n">
-        <v>697.8616999273315</v>
+        <v>697.8616999273316</v>
       </c>
       <c r="L26" t="n">
         <v>1231.186699805911</v>
@@ -6236,22 +6236,22 @@
         <v>1819.324339776568</v>
       </c>
       <c r="N26" t="n">
-        <v>2394.06538038162</v>
+        <v>2293.932940143697</v>
       </c>
       <c r="O26" t="n">
-        <v>2890.190750498515</v>
+        <v>2790.058310260591</v>
       </c>
       <c r="P26" t="n">
-        <v>3296.337609041468</v>
+        <v>3196.205168803545</v>
       </c>
       <c r="Q26" t="n">
         <v>3449.579379771279</v>
       </c>
       <c r="R26" t="n">
-        <v>3495.660337173374</v>
+        <v>3495.660337173375</v>
       </c>
       <c r="S26" t="n">
-        <v>3424.363401382435</v>
+        <v>3424.363401382436</v>
       </c>
       <c r="T26" t="n">
         <v>3305.945741005183</v>
@@ -6300,16 +6300,16 @@
         <v>128.2984540202789</v>
       </c>
       <c r="I27" t="n">
-        <v>69.91320674346748</v>
+        <v>69.9132067434675</v>
       </c>
       <c r="J27" t="n">
-        <v>69.91320674346748</v>
+        <v>69.9132067434675</v>
       </c>
       <c r="K27" t="n">
-        <v>345.3574582049646</v>
+        <v>345.3574582049647</v>
       </c>
       <c r="L27" t="n">
-        <v>772.9697225865661</v>
+        <v>772.9697225865663</v>
       </c>
       <c r="M27" t="n">
         <v>1330.109580850808</v>
@@ -6318,10 +6318,10 @@
         <v>1915.390176349183</v>
       </c>
       <c r="O27" t="n">
-        <v>2194.418126106571</v>
+        <v>2000.319895760809</v>
       </c>
       <c r="P27" t="n">
-        <v>2550.85666272657</v>
+        <v>2356.758432380809</v>
       </c>
       <c r="Q27" t="n">
         <v>2550.85666272657</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>434.8980071462526</v>
+        <v>434.8980071462521</v>
       </c>
       <c r="C28" t="n">
-        <v>368.8477382598692</v>
+        <v>368.8477382598688</v>
       </c>
       <c r="D28" t="n">
-        <v>319.3415457395684</v>
+        <v>319.341545739568</v>
       </c>
       <c r="E28" t="n">
-        <v>270.8982321528237</v>
+        <v>270.8982321528233</v>
       </c>
       <c r="F28" t="n">
-        <v>221.9832778305372</v>
+        <v>221.9832778305368</v>
       </c>
       <c r="G28" t="n">
-        <v>156.8726577786232</v>
+        <v>156.8726577786229</v>
       </c>
       <c r="H28" t="n">
         <v>103.2300087905334</v>
       </c>
       <c r="I28" t="n">
-        <v>69.91320674346748</v>
+        <v>69.9132067434675</v>
       </c>
       <c r="J28" t="n">
-        <v>129.4237188900808</v>
+        <v>129.4237188900809</v>
       </c>
       <c r="K28" t="n">
-        <v>292.2517393535782</v>
+        <v>292.251739353578</v>
       </c>
       <c r="L28" t="n">
         <v>529.8344531869595</v>
       </c>
       <c r="M28" t="n">
-        <v>786.7317839334653</v>
+        <v>786.7317839334651</v>
       </c>
       <c r="N28" t="n">
         <v>1043.168683737098</v>
@@ -6427,7 +6427,7 @@
         <v>633.3571333344821</v>
       </c>
       <c r="Y28" t="n">
-        <v>514.887675178696</v>
+        <v>514.8876751786955</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1803.368283428341</v>
+        <v>1803.368283428339</v>
       </c>
       <c r="C29" t="n">
-        <v>1525.000225413085</v>
+        <v>1525.000225413082</v>
       </c>
       <c r="D29" t="n">
-        <v>1255.741961292245</v>
+        <v>1255.741961292243</v>
       </c>
       <c r="E29" t="n">
-        <v>964.5219420502881</v>
+        <v>964.5219420502858</v>
       </c>
       <c r="F29" t="n">
-        <v>653.9364520123949</v>
+        <v>653.9364520123927</v>
       </c>
       <c r="G29" t="n">
-        <v>341.9408469271543</v>
+        <v>341.9408469271522</v>
       </c>
       <c r="H29" t="n">
-        <v>118.2430030078329</v>
+        <v>118.2430030078328</v>
       </c>
       <c r="I29" t="n">
-        <v>69.91320674346748</v>
+        <v>69.91320674346746</v>
       </c>
       <c r="J29" t="n">
         <v>288.5592683370142</v>
@@ -6467,46 +6467,46 @@
         <v>697.8616999273315</v>
       </c>
       <c r="L29" t="n">
-        <v>1131.054259567988</v>
+        <v>1131.054259567986</v>
       </c>
       <c r="M29" t="n">
-        <v>1719.191899538644</v>
+        <v>1719.191899538643</v>
       </c>
       <c r="N29" t="n">
-        <v>2293.932940143697</v>
+        <v>2293.932940143695</v>
       </c>
       <c r="O29" t="n">
-        <v>2790.058310260591</v>
+        <v>2790.05831026059</v>
       </c>
       <c r="P29" t="n">
-        <v>3196.205168803544</v>
+        <v>3196.205168803543</v>
       </c>
       <c r="Q29" t="n">
-        <v>3449.579379771279</v>
+        <v>3449.579379771277</v>
       </c>
       <c r="R29" t="n">
-        <v>3495.660337173374</v>
+        <v>3495.660337173373</v>
       </c>
       <c r="S29" t="n">
-        <v>3424.363401382436</v>
+        <v>3424.363401382433</v>
       </c>
       <c r="T29" t="n">
-        <v>3305.945741005183</v>
+        <v>3305.94574100518</v>
       </c>
       <c r="U29" t="n">
-        <v>3154.669519835805</v>
+        <v>3154.669519835802</v>
       </c>
       <c r="V29" t="n">
-        <v>2921.255946383682</v>
+        <v>2921.25594638368</v>
       </c>
       <c r="W29" t="n">
-        <v>2662.28671689322</v>
+        <v>2662.286716893217</v>
       </c>
       <c r="X29" t="n">
-        <v>2383.82227706665</v>
+        <v>2383.822277066647</v>
       </c>
       <c r="Y29" t="n">
-        <v>2093.846122294424</v>
+        <v>2093.846122294422</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>936.1343047002184</v>
+        <v>936.1343047002182</v>
       </c>
       <c r="C30" t="n">
-        <v>774.4306319411731</v>
+        <v>774.4306319411729</v>
       </c>
       <c r="D30" t="n">
-        <v>635.5919949313852</v>
+        <v>635.591994931385</v>
       </c>
       <c r="E30" t="n">
-        <v>488.5639849882564</v>
+        <v>488.5639849882563</v>
       </c>
       <c r="F30" t="n">
-        <v>353.8701869381307</v>
+        <v>353.8701869381306</v>
       </c>
       <c r="G30" t="n">
-        <v>225.4320467921864</v>
+        <v>225.4320467921863</v>
       </c>
       <c r="H30" t="n">
         <v>128.2984540202789</v>
       </c>
       <c r="I30" t="n">
-        <v>69.91320674346748</v>
+        <v>69.91320674346746</v>
       </c>
       <c r="J30" t="n">
         <v>157.0540802785859</v>
       </c>
       <c r="K30" t="n">
-        <v>432.4983317400831</v>
+        <v>157.0540802785859</v>
       </c>
       <c r="L30" t="n">
-        <v>860.1105961216846</v>
+        <v>397.9902725297571</v>
       </c>
       <c r="M30" t="n">
-        <v>1417.250454385927</v>
+        <v>955.1301307939991</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.410726292375</v>
+        <v>1540.410726292374</v>
       </c>
       <c r="O30" t="n">
         <v>2000.319895760809</v>
       </c>
       <c r="P30" t="n">
-        <v>2356.758432380809</v>
+        <v>2356.758432380808</v>
       </c>
       <c r="Q30" t="n">
         <v>2550.85666272657</v>
@@ -6567,16 +6567,16 @@
         <v>2509.100173489918</v>
       </c>
       <c r="S30" t="n">
-        <v>2361.693993008429</v>
+        <v>2361.693993008428</v>
       </c>
       <c r="T30" t="n">
         <v>2174.179243053706</v>
       </c>
       <c r="U30" t="n">
-        <v>1955.703553272462</v>
+        <v>1955.703553272461</v>
       </c>
       <c r="V30" t="n">
-        <v>1727.307930720796</v>
+        <v>1727.307930720795</v>
       </c>
       <c r="W30" t="n">
         <v>1485.992061954106</v>
@@ -6595,52 +6595,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>434.8980071462523</v>
+        <v>434.8980071462524</v>
       </c>
       <c r="C31" t="n">
         <v>368.8477382598691</v>
       </c>
       <c r="D31" t="n">
-        <v>319.3415457395682</v>
+        <v>319.3415457395683</v>
       </c>
       <c r="E31" t="n">
-        <v>270.8982321528235</v>
+        <v>270.8982321528236</v>
       </c>
       <c r="F31" t="n">
-        <v>221.983277830537</v>
+        <v>221.9832778305372</v>
       </c>
       <c r="G31" t="n">
-        <v>156.8726577786231</v>
+        <v>156.8726577786233</v>
       </c>
       <c r="H31" t="n">
-        <v>103.2300087905334</v>
+        <v>103.2300087905337</v>
       </c>
       <c r="I31" t="n">
-        <v>69.91320674346748</v>
+        <v>69.91320674346746</v>
       </c>
       <c r="J31" t="n">
-        <v>129.4237188900809</v>
+        <v>129.4237188900808</v>
       </c>
       <c r="K31" t="n">
         <v>292.2517393535779</v>
       </c>
       <c r="L31" t="n">
-        <v>529.8344531869594</v>
+        <v>529.8344531869595</v>
       </c>
       <c r="M31" t="n">
-        <v>786.7317839334651</v>
+        <v>786.7317839334653</v>
       </c>
       <c r="N31" t="n">
         <v>1043.168683737098</v>
       </c>
       <c r="O31" t="n">
-        <v>1276.859796735943</v>
+        <v>1276.859796735944</v>
       </c>
       <c r="P31" t="n">
         <v>1470.188639231697</v>
       </c>
       <c r="Q31" t="n">
-        <v>1553.901066696969</v>
+        <v>1553.901066696968</v>
       </c>
       <c r="R31" t="n">
         <v>1518.8903908121</v>
@@ -6658,10 +6658,10 @@
         <v>943.6345976178345</v>
       </c>
       <c r="W31" t="n">
-        <v>761.0438967871701</v>
+        <v>761.0438967871702</v>
       </c>
       <c r="X31" t="n">
-        <v>633.3571333344822</v>
+        <v>633.3571333344825</v>
       </c>
       <c r="Y31" t="n">
         <v>514.8876751786958</v>
@@ -6680,55 +6680,55 @@
         <v>1508.504274778813</v>
       </c>
       <c r="D32" t="n">
-        <v>1241.861873379912</v>
+        <v>1241.861873379913</v>
       </c>
       <c r="E32" t="n">
-        <v>953.2577168598946</v>
+        <v>953.2577168598955</v>
       </c>
       <c r="F32" t="n">
-        <v>645.2880895439407</v>
+        <v>645.288089543942</v>
       </c>
       <c r="G32" t="n">
-        <v>335.9083471806398</v>
+        <v>335.9083471806409</v>
       </c>
       <c r="H32" t="n">
-        <v>114.826365983259</v>
+        <v>114.8263659832588</v>
       </c>
       <c r="I32" t="n">
-        <v>69.11243244083298</v>
+        <v>69.11243244083295</v>
       </c>
       <c r="J32" t="n">
-        <v>290.3223010881525</v>
+        <v>290.3223010881526</v>
       </c>
       <c r="K32" t="n">
-        <v>702.1885397322426</v>
+        <v>702.1885397322428</v>
       </c>
       <c r="L32" t="n">
-        <v>1238.077346664595</v>
+        <v>1134.00879640186</v>
       </c>
       <c r="M32" t="n">
-        <v>1828.778793689024</v>
+        <v>1724.710243426289</v>
       </c>
       <c r="N32" t="n">
-        <v>2406.08364134785</v>
+        <v>2302.015091085114</v>
       </c>
       <c r="O32" t="n">
-        <v>2904.772818518517</v>
+        <v>2800.704268255782</v>
       </c>
       <c r="P32" t="n">
         <v>3209.414933852508</v>
       </c>
       <c r="Q32" t="n">
-        <v>3455.621622041649</v>
+        <v>3406.976857585779</v>
       </c>
       <c r="R32" t="n">
-        <v>3455.621622041649</v>
+        <v>3455.621622041647</v>
       </c>
       <c r="S32" t="n">
-        <v>3386.940548972649</v>
+        <v>3386.940548972648</v>
       </c>
       <c r="T32" t="n">
-        <v>3271.138751317336</v>
+        <v>3271.138751317335</v>
       </c>
       <c r="U32" t="n">
         <v>3122.478392869896</v>
@@ -6762,10 +6762,10 @@
         <v>634.7912206287506</v>
       </c>
       <c r="E33" t="n">
-        <v>487.7632106856219</v>
+        <v>487.7632106856217</v>
       </c>
       <c r="F33" t="n">
-        <v>353.0694126354962</v>
+        <v>353.0694126354961</v>
       </c>
       <c r="G33" t="n">
         <v>224.6312724895518</v>
@@ -6774,7 +6774,7 @@
         <v>127.4976797176444</v>
       </c>
       <c r="I33" t="n">
-        <v>69.11243244083298</v>
+        <v>69.11243244083295</v>
       </c>
       <c r="J33" t="n">
         <v>156.2533059759514</v>
@@ -6786,7 +6786,7 @@
         <v>859.3098218190501</v>
       </c>
       <c r="M33" t="n">
-        <v>1416.449680083292</v>
+        <v>954.3293564913649</v>
       </c>
       <c r="N33" t="n">
         <v>1539.60995198974</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>415.7861937900421</v>
+        <v>415.7861937900411</v>
       </c>
       <c r="C34" t="n">
-        <v>352.3517876255982</v>
+        <v>352.3517876255973</v>
       </c>
       <c r="D34" t="n">
-        <v>305.4614578272368</v>
+        <v>305.461457827236</v>
       </c>
       <c r="E34" t="n">
-        <v>259.6340069624314</v>
+        <v>259.6340069624308</v>
       </c>
       <c r="F34" t="n">
-        <v>213.3349153620843</v>
+        <v>213.3349153620838</v>
       </c>
       <c r="G34" t="n">
-        <v>150.8401580321097</v>
+        <v>150.8401580321094</v>
       </c>
       <c r="H34" t="n">
-        <v>99.8133717659595</v>
+        <v>99.81337176595933</v>
       </c>
       <c r="I34" t="n">
-        <v>69.11243244083298</v>
+        <v>69.11243244083295</v>
       </c>
       <c r="J34" t="n">
-        <v>131.1867516412191</v>
+        <v>131.1867516412192</v>
       </c>
       <c r="K34" t="n">
-        <v>234.2143191772765</v>
+        <v>296.5785791584892</v>
       </c>
       <c r="L34" t="n">
-        <v>474.3608400644308</v>
+        <v>536.7251000456437</v>
       </c>
       <c r="M34" t="n">
-        <v>733.8219778647092</v>
+        <v>796.1862378459223</v>
       </c>
       <c r="N34" t="n">
-        <v>992.8226847221149</v>
+        <v>1055.186944703328</v>
       </c>
       <c r="O34" t="n">
-        <v>1229.077604774733</v>
+        <v>1291.441864755946</v>
       </c>
       <c r="P34" t="n">
-        <v>1424.970254324259</v>
+        <v>1487.334514305473</v>
       </c>
       <c r="Q34" t="n">
-        <v>1511.246488843304</v>
+        <v>1511.246488843302</v>
       </c>
       <c r="R34" t="n">
-        <v>1478.851675680375</v>
+        <v>1478.851675680373</v>
       </c>
       <c r="S34" t="n">
-        <v>1375.565761353851</v>
+        <v>1375.565761353849</v>
       </c>
       <c r="T34" t="n">
-        <v>1249.608472691594</v>
+        <v>1249.608472691593</v>
       </c>
       <c r="U34" t="n">
-        <v>1068.613074441568</v>
+        <v>1068.613074441567</v>
       </c>
       <c r="V34" t="n">
-        <v>914.0593333738667</v>
+        <v>914.0593333738652</v>
       </c>
       <c r="W34" t="n">
-        <v>734.0844952651416</v>
+        <v>734.0844952651403</v>
       </c>
       <c r="X34" t="n">
-        <v>609.0135945343932</v>
+        <v>609.0135945343919</v>
       </c>
       <c r="Y34" t="n">
-        <v>493.1599991005461</v>
+        <v>493.159999100545</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1435.43080428974</v>
+        <v>1435.430804289738</v>
       </c>
       <c r="C35" t="n">
-        <v>1207.752508172448</v>
+        <v>1207.752508172447</v>
       </c>
       <c r="D35" t="n">
-        <v>989.1840059495735</v>
+        <v>989.1840059495717</v>
       </c>
       <c r="E35" t="n">
-        <v>748.6537486055818</v>
+        <v>748.6537486055798</v>
       </c>
       <c r="F35" t="n">
-        <v>488.7580204656535</v>
+        <v>488.7580204656515</v>
       </c>
       <c r="G35" t="n">
-        <v>227.4521772783768</v>
+        <v>227.452177278377</v>
       </c>
       <c r="H35" t="n">
-        <v>54.44409525702105</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="I35" t="n">
-        <v>54.44409525702105</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="J35" t="n">
         <v>171.5854136416049</v>
       </c>
       <c r="K35" t="n">
-        <v>479.3831020229593</v>
+        <v>479.3831020229594</v>
       </c>
       <c r="L35" t="n">
-        <v>911.2033586925761</v>
+        <v>911.2033586925762</v>
       </c>
       <c r="M35" t="n">
         <v>1397.83625545427</v>
@@ -6965,22 +6965,22 @@
         <v>2701.597588958079</v>
       </c>
       <c r="T35" t="n">
-        <v>2633.869690478792</v>
+        <v>2633.869690478791</v>
       </c>
       <c r="U35" t="n">
-        <v>2533.283231207378</v>
+        <v>2533.283231207377</v>
       </c>
       <c r="V35" t="n">
-        <v>2350.559419653221</v>
+        <v>2350.559419653219</v>
       </c>
       <c r="W35" t="n">
-        <v>2142.279952060723</v>
+        <v>2142.279952060721</v>
       </c>
       <c r="X35" t="n">
-        <v>1914.505274132118</v>
+        <v>1914.505274132116</v>
       </c>
       <c r="Y35" t="n">
-        <v>1675.218881257857</v>
+        <v>1675.218881257855</v>
       </c>
     </row>
     <row r="36">
@@ -7011,19 +7011,19 @@
         <v>112.8293425338325</v>
       </c>
       <c r="I36" t="n">
-        <v>54.44409525702105</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="J36" t="n">
-        <v>141.5849687921395</v>
+        <v>107.0769095818137</v>
       </c>
       <c r="K36" t="n">
-        <v>417.0292202536367</v>
+        <v>382.5211610433108</v>
       </c>
       <c r="L36" t="n">
-        <v>844.6414846352382</v>
+        <v>382.5211610433108</v>
       </c>
       <c r="M36" t="n">
-        <v>1401.78134289948</v>
+        <v>939.6610193075528</v>
       </c>
       <c r="N36" t="n">
         <v>1524.941614805928</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.1783474895129</v>
+        <v>87.17834748951333</v>
       </c>
       <c r="C37" t="n">
-        <v>71.81784050109462</v>
+        <v>71.81784050109491</v>
       </c>
       <c r="D37" t="n">
-        <v>71.81784050109462</v>
+        <v>71.81784050109491</v>
       </c>
       <c r="E37" t="n">
-        <v>71.81784050109462</v>
+        <v>71.81784050109491</v>
       </c>
       <c r="F37" t="n">
-        <v>71.81784050109462</v>
+        <v>71.81784050109491</v>
       </c>
       <c r="G37" t="n">
-        <v>57.39698234714565</v>
+        <v>57.3969823471458</v>
       </c>
       <c r="H37" t="n">
-        <v>54.44409525702105</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="I37" t="n">
-        <v>54.44409525702105</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="J37" t="n">
-        <v>54.44409525702105</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="K37" t="n">
         <v>115.7673725115552</v>
@@ -7120,25 +7120,25 @@
         <v>786.18055634486</v>
       </c>
       <c r="S37" t="n">
-        <v>710.440620821142</v>
+        <v>730.968541194361</v>
       </c>
       <c r="T37" t="n">
-        <v>632.5572313349115</v>
+        <v>653.0851517081304</v>
       </c>
       <c r="U37" t="n">
-        <v>499.635732260911</v>
+        <v>520.1636526341297</v>
       </c>
       <c r="V37" t="n">
-        <v>393.1558903692351</v>
+        <v>393.1558903692361</v>
       </c>
       <c r="W37" t="n">
-        <v>261.2549514365356</v>
+        <v>261.2549514365365</v>
       </c>
       <c r="X37" t="n">
-        <v>184.2579498818128</v>
+        <v>184.2579498818135</v>
       </c>
       <c r="Y37" t="n">
-        <v>116.4782536239913</v>
+        <v>116.4782536239919</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1435.430804289738</v>
+        <v>1435.430804289739</v>
       </c>
       <c r="C38" t="n">
-        <v>1207.752508172447</v>
+        <v>1207.752508172448</v>
       </c>
       <c r="D38" t="n">
-        <v>989.1840059495721</v>
+        <v>989.1840059495726</v>
       </c>
       <c r="E38" t="n">
-        <v>748.6537486055804</v>
+        <v>748.6537486055807</v>
       </c>
       <c r="F38" t="n">
         <v>488.7580204656524</v>
       </c>
       <c r="G38" t="n">
-        <v>227.4521772783768</v>
+        <v>227.452177278377</v>
       </c>
       <c r="H38" t="n">
-        <v>54.44409525702104</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="I38" t="n">
-        <v>54.44409525702104</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="J38" t="n">
         <v>171.5854136416049</v>
       </c>
       <c r="K38" t="n">
-        <v>479.3831020229593</v>
+        <v>479.3831020229594</v>
       </c>
       <c r="L38" t="n">
-        <v>911.2033586925761</v>
+        <v>911.2033586925763</v>
       </c>
       <c r="M38" t="n">
         <v>1397.83625545427</v>
       </c>
       <c r="N38" t="n">
-        <v>1871.072552850359</v>
+        <v>1871.07255285036</v>
       </c>
       <c r="O38" t="n">
-        <v>2265.69317975829</v>
+        <v>2265.693179758292</v>
       </c>
       <c r="P38" t="n">
-        <v>2570.335295092281</v>
+        <v>2570.335295092282</v>
       </c>
       <c r="Q38" t="n">
-        <v>2722.204762851052</v>
+        <v>2722.204762851053</v>
       </c>
       <c r="R38" t="n">
-        <v>2722.204762851052</v>
+        <v>2722.204762851053</v>
       </c>
       <c r="S38" t="n">
-        <v>2701.597588958079</v>
+        <v>2701.59758895808</v>
       </c>
       <c r="T38" t="n">
-        <v>2633.869690478791</v>
+        <v>2633.869690478792</v>
       </c>
       <c r="U38" t="n">
-        <v>2533.283231207377</v>
+        <v>2533.283231207378</v>
       </c>
       <c r="V38" t="n">
-        <v>2350.55941965322</v>
+        <v>2350.559419653221</v>
       </c>
       <c r="W38" t="n">
-        <v>2142.279952060722</v>
+        <v>2142.279952060723</v>
       </c>
       <c r="X38" t="n">
-        <v>1914.505274132117</v>
+        <v>1914.505274132118</v>
       </c>
       <c r="Y38" t="n">
-        <v>1675.218881257856</v>
+        <v>1675.218881257857</v>
       </c>
     </row>
     <row r="39">
@@ -7248,19 +7248,19 @@
         <v>112.8293425338325</v>
       </c>
       <c r="I39" t="n">
-        <v>54.44409525702104</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="J39" t="n">
-        <v>141.5849687921394</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="K39" t="n">
-        <v>417.0292202536366</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="L39" t="n">
-        <v>844.6414846352382</v>
+        <v>382.5211610433108</v>
       </c>
       <c r="M39" t="n">
-        <v>1401.78134289948</v>
+        <v>939.6610193075528</v>
       </c>
       <c r="N39" t="n">
         <v>1524.941614805928</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.17834748951287</v>
+        <v>87.17834748951333</v>
       </c>
       <c r="C40" t="n">
-        <v>71.81784050109459</v>
+        <v>71.81784050109491</v>
       </c>
       <c r="D40" t="n">
-        <v>71.81784050109459</v>
+        <v>71.81784050109491</v>
       </c>
       <c r="E40" t="n">
-        <v>71.81784050109459</v>
+        <v>71.81784050109491</v>
       </c>
       <c r="F40" t="n">
-        <v>71.81784050109459</v>
+        <v>71.81784050109491</v>
       </c>
       <c r="G40" t="n">
-        <v>57.39698234714564</v>
+        <v>57.3969823471458</v>
       </c>
       <c r="H40" t="n">
-        <v>54.44409525702104</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="I40" t="n">
-        <v>54.44409525702104</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="J40" t="n">
-        <v>54.44409525702104</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="K40" t="n">
         <v>115.7673725115552</v>
       </c>
       <c r="L40" t="n">
-        <v>251.8453431359738</v>
+        <v>251.8453431359739</v>
       </c>
       <c r="M40" t="n">
         <v>407.2379306735166</v>
@@ -7354,28 +7354,28 @@
         <v>786.18055634486</v>
       </c>
       <c r="R40" t="n">
-        <v>765.6526359716408</v>
+        <v>786.18055634486</v>
       </c>
       <c r="S40" t="n">
-        <v>710.440620821142</v>
+        <v>730.968541194361</v>
       </c>
       <c r="T40" t="n">
-        <v>632.5572313349115</v>
+        <v>653.0851517081304</v>
       </c>
       <c r="U40" t="n">
-        <v>499.635732260911</v>
+        <v>520.1636526341297</v>
       </c>
       <c r="V40" t="n">
-        <v>393.1558903692351</v>
+        <v>393.1558903692361</v>
       </c>
       <c r="W40" t="n">
-        <v>261.2549514365356</v>
+        <v>261.2549514365365</v>
       </c>
       <c r="X40" t="n">
-        <v>184.2579498818127</v>
+        <v>184.2579498818135</v>
       </c>
       <c r="Y40" t="n">
-        <v>116.4782536239913</v>
+        <v>116.4782536239919</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1435.430804289738</v>
+        <v>1435.430804289739</v>
       </c>
       <c r="C41" t="n">
-        <v>1207.752508172447</v>
+        <v>1207.752508172448</v>
       </c>
       <c r="D41" t="n">
-        <v>989.1840059495719</v>
+        <v>989.1840059495729</v>
       </c>
       <c r="E41" t="n">
-        <v>748.6537486055804</v>
+        <v>748.6537486055812</v>
       </c>
       <c r="F41" t="n">
-        <v>488.7580204656522</v>
+        <v>488.7580204656529</v>
       </c>
       <c r="G41" t="n">
-        <v>227.452177278377</v>
+        <v>227.4521772783768</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44409525702106</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44409525702106</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="J41" t="n">
-        <v>171.5854136416051</v>
+        <v>171.5854136416049</v>
       </c>
       <c r="K41" t="n">
-        <v>479.3831020229595</v>
+        <v>479.3831020229594</v>
       </c>
       <c r="L41" t="n">
         <v>911.2033586925763</v>
@@ -7421,10 +7421,10 @@
         <v>1397.83625545427</v>
       </c>
       <c r="N41" t="n">
-        <v>1871.07255285036</v>
+        <v>1871.072552850359</v>
       </c>
       <c r="O41" t="n">
-        <v>2265.693179758292</v>
+        <v>2265.693179758291</v>
       </c>
       <c r="P41" t="n">
         <v>2570.335295092282</v>
@@ -7448,13 +7448,13 @@
         <v>2350.55941965322</v>
       </c>
       <c r="W41" t="n">
-        <v>2142.279952060722</v>
+        <v>2142.279952060723</v>
       </c>
       <c r="X41" t="n">
         <v>1914.505274132117</v>
       </c>
       <c r="Y41" t="n">
-        <v>1675.218881257856</v>
+        <v>1675.218881257857</v>
       </c>
     </row>
     <row r="42">
@@ -7473,10 +7473,10 @@
         <v>620.1228834449387</v>
       </c>
       <c r="E42" t="n">
-        <v>473.09487350181</v>
+        <v>473.0948735018098</v>
       </c>
       <c r="F42" t="n">
-        <v>338.4010754516843</v>
+        <v>338.4010754516842</v>
       </c>
       <c r="G42" t="n">
         <v>209.9629353057399</v>
@@ -7485,19 +7485,19 @@
         <v>112.8293425338325</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44409525702106</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="J42" t="n">
-        <v>141.5849687921395</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="K42" t="n">
-        <v>417.0292202536367</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="L42" t="n">
-        <v>844.6414846352382</v>
+        <v>482.0563596386226</v>
       </c>
       <c r="M42" t="n">
-        <v>939.6610193075528</v>
+        <v>1039.196217902865</v>
       </c>
       <c r="N42" t="n">
         <v>1524.941614805928</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>89.55269603976295</v>
+        <v>87.1783474895129</v>
       </c>
       <c r="C43" t="n">
-        <v>74.19218905134456</v>
+        <v>71.81784050109462</v>
       </c>
       <c r="D43" t="n">
-        <v>74.19218905134456</v>
+        <v>71.81784050109462</v>
       </c>
       <c r="E43" t="n">
-        <v>74.19218905134456</v>
+        <v>71.81784050109462</v>
       </c>
       <c r="F43" t="n">
-        <v>74.19218905134456</v>
+        <v>71.81784050109462</v>
       </c>
       <c r="G43" t="n">
-        <v>59.77133089739548</v>
+        <v>57.39698234714565</v>
       </c>
       <c r="H43" t="n">
-        <v>56.81844380727077</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="I43" t="n">
-        <v>56.81844380727077</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="J43" t="n">
-        <v>54.44409525702106</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="K43" t="n">
         <v>115.7673725115552</v>
@@ -7588,31 +7588,31 @@
         <v>786.18055634486</v>
       </c>
       <c r="Q43" t="n">
-        <v>768.0269845218917</v>
+        <v>786.18055634486</v>
       </c>
       <c r="R43" t="n">
-        <v>768.0269845218917</v>
+        <v>786.18055634486</v>
       </c>
       <c r="S43" t="n">
-        <v>712.8149693713929</v>
+        <v>730.9685411943613</v>
       </c>
       <c r="T43" t="n">
-        <v>634.9315798851623</v>
+        <v>653.0851517081308</v>
       </c>
       <c r="U43" t="n">
-        <v>502.0100808111616</v>
+        <v>499.635732260911</v>
       </c>
       <c r="V43" t="n">
-        <v>395.5302389194856</v>
+        <v>393.1558903692351</v>
       </c>
       <c r="W43" t="n">
-        <v>263.629299986786</v>
+        <v>261.2549514365356</v>
       </c>
       <c r="X43" t="n">
-        <v>186.6322984320631</v>
+        <v>184.2579498818128</v>
       </c>
       <c r="Y43" t="n">
-        <v>118.8526021742415</v>
+        <v>116.4782536239913</v>
       </c>
     </row>
     <row r="44">
@@ -7631,28 +7631,28 @@
         <v>989.1840059495721</v>
       </c>
       <c r="E44" t="n">
-        <v>748.6537486055802</v>
+        <v>748.6537486055806</v>
       </c>
       <c r="F44" t="n">
-        <v>488.758020465652</v>
+        <v>488.7580204656524</v>
       </c>
       <c r="G44" t="n">
         <v>227.4521772783769</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44409525702105</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44409525702105</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="J44" t="n">
-        <v>171.5854136416051</v>
+        <v>171.5854136416049</v>
       </c>
       <c r="K44" t="n">
-        <v>479.3831020229595</v>
+        <v>479.3831020229594</v>
       </c>
       <c r="L44" t="n">
-        <v>911.2033586925764</v>
+        <v>911.2033586925762</v>
       </c>
       <c r="M44" t="n">
         <v>1397.83625545427</v>
@@ -7679,7 +7679,7 @@
         <v>2633.869690478792</v>
       </c>
       <c r="U44" t="n">
-        <v>2533.283231207377</v>
+        <v>2533.283231207378</v>
       </c>
       <c r="V44" t="n">
         <v>2350.55941965322</v>
@@ -7722,25 +7722,25 @@
         <v>112.8293425338325</v>
       </c>
       <c r="I45" t="n">
-        <v>54.44409525702105</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="J45" t="n">
-        <v>54.44409525702105</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="K45" t="n">
-        <v>149.0071270074708</v>
+        <v>329.8883467185182</v>
       </c>
       <c r="L45" t="n">
-        <v>576.6193913890723</v>
+        <v>757.5006111001198</v>
       </c>
       <c r="M45" t="n">
-        <v>1133.759249653314</v>
+        <v>1314.640469364362</v>
       </c>
       <c r="N45" t="n">
-        <v>1719.039845151689</v>
+        <v>1899.921064862737</v>
       </c>
       <c r="O45" t="n">
-        <v>2178.949014620124</v>
+        <v>2359.830234331172</v>
       </c>
       <c r="P45" t="n">
         <v>2535.387551240124</v>
@@ -7798,13 +7798,13 @@
         <v>57.39698234714574</v>
       </c>
       <c r="H46" t="n">
-        <v>54.44409525702105</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44409525702105</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="J46" t="n">
-        <v>54.44409525702105</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="K46" t="n">
         <v>115.7673725115552</v>
@@ -7828,7 +7828,7 @@
         <v>786.18055634486</v>
       </c>
       <c r="R46" t="n">
-        <v>765.6526359716418</v>
+        <v>786.18055634486</v>
       </c>
       <c r="S46" t="n">
         <v>710.4406208211429</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.109476210864</v>
+        <v>156.705044744887</v>
       </c>
       <c r="K8" t="n">
-        <v>188.8326827569781</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L8" t="n">
         <v>201.569890946046</v>
       </c>
       <c r="M8" t="n">
-        <v>196.7615618141134</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N8" t="n">
-        <v>186.3981141722301</v>
+        <v>196.4077929551615</v>
       </c>
       <c r="O8" t="n">
         <v>186.9547967801205</v>
@@ -8471,7 +8471,7 @@
         <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
-        <v>180.6233730229902</v>
+        <v>190.6330518059216</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8532,7 +8532,7 @@
         <v>113.0652504495981</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>121.601416483621</v>
       </c>
       <c r="L9" t="n">
         <v>122.5851123540791</v>
@@ -8544,7 +8544,7 @@
         <v>116.7248198506397</v>
       </c>
       <c r="O9" t="n">
-        <v>125.4646959280654</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
         <v>108.8542060241433</v>
@@ -8611,19 +8611,19 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K10" t="n">
-        <v>104.82327226356</v>
+        <v>114.8329510464913</v>
       </c>
       <c r="L10" t="n">
         <v>109.5937994785061</v>
       </c>
       <c r="M10" t="n">
-        <v>122.4824467743834</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N10" t="n">
         <v>113.7541836609333</v>
       </c>
       <c r="O10" t="n">
-        <v>122.5056162750536</v>
+        <v>122.1011848090766</v>
       </c>
       <c r="P10" t="n">
         <v>121.9136820728638</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.5010356988638</v>
+        <v>101.5010356988637</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>542.9595789155856</v>
+        <v>472.5798887879647</v>
       </c>
       <c r="M11" t="n">
         <v>584.3675935406823</v>
@@ -8708,7 +8708,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>205.6297977302555</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8772,19 +8772,19 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>375.3431691248739</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>623.1450866466196</v>
+        <v>156.3568809982093</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>53.96267335313116</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.5010356988638</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
-        <v>542.9595789155856</v>
+        <v>354.2553247631325</v>
       </c>
       <c r="M14" t="n">
         <v>584.3675935406823</v>
@@ -8945,7 +8945,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>205.6297977302555</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,28 +9003,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>75.897261563624</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>343.8048081163522</v>
+        <v>65.57829148857729</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>422.7082801365695</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
-        <v>512.0210150597484</v>
+        <v>323.4593260391132</v>
       </c>
       <c r="P15" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>77.04165552553152</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9164,7 +9164,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>232.6847821900614</v>
+        <v>232.6847821900611</v>
       </c>
       <c r="L17" t="n">
         <v>542.9595789155856</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>75.89726156362399</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9249,10 +9249,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>605.4165828749999</v>
+        <v>226.6494616054959</v>
       </c>
       <c r="N18" t="n">
-        <v>156.3568809982079</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9410,7 +9410,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N20" t="n">
-        <v>379.8467475831266</v>
+        <v>379.8467475831264</v>
       </c>
       <c r="O20" t="n">
         <v>495.0402356415689</v>
@@ -9477,10 +9477,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>75.89726156362399</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>65.57829148857729</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9489,7 +9489,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>352.4156995292815</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>77.04165552553015</v>
+        <v>172.5598694148746</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>101.5010356988638</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L23" t="n">
-        <v>542.9595789155856</v>
+        <v>354.2553247631325</v>
       </c>
       <c r="M23" t="n">
         <v>584.3675935406823</v>
@@ -9656,7 +9656,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>205.6297977302555</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9714,13 +9714,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>75.897261563624</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>161.0965053779219</v>
+        <v>308.9481826513775</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>50.16086871106101</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>77.04165552553152</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,7 +9951,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>75.897261563624</v>
+        <v>75.89726156362399</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
@@ -9966,13 +9966,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
-        <v>329.3127123213172</v>
+        <v>133.2538937902447</v>
       </c>
       <c r="P27" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>77.04165552553152</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10191,16 +10191,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>65.57829148857729</v>
       </c>
       <c r="L30" t="n">
-        <v>482.0924488944969</v>
+        <v>293.5307598738602</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>156.3568809982084</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10434,10 +10434,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>605.4165828749999</v>
+        <v>138.6283772265887</v>
       </c>
       <c r="N33" t="n">
-        <v>156.3568809982082</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10662,19 +10662,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>129.0617204775559</v>
       </c>
       <c r="K36" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>482.0924488944969</v>
+        <v>50.16086871106101</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>156.3568809982082</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10832,7 +10832,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N38" t="n">
-        <v>568.5510017355786</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O38" t="n">
         <v>495.0402356415689</v>
@@ -10841,7 +10841,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10899,19 +10899,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>75.89726156362399</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>65.57829148857729</v>
       </c>
       <c r="L39" t="n">
-        <v>482.0924488944969</v>
+        <v>381.5518442527679</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>156.3568809982082</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11069,7 +11069,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N41" t="n">
-        <v>568.5510017355793</v>
+        <v>568.551001735579</v>
       </c>
       <c r="O41" t="n">
         <v>495.0402356415689</v>
@@ -11136,19 +11136,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>75.89726156362399</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>65.57829148857729</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>138.6283772265885</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>522.6044820048903</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11373,10 +11373,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>75.897261563624</v>
+        <v>75.89726156362399</v>
       </c>
       <c r="K45" t="n">
-        <v>161.0965053779206</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -11391,10 +11391,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>414.0015992319183</v>
+        <v>231.2932964934868</v>
       </c>
       <c r="Q45" t="n">
-        <v>77.04165552553152</v>
+        <v>77.04165552553151</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23258,19 +23258,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>289.557888188956</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>302.2813298033894</v>
+        <v>302.2813298033895</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>321.4531458913667</v>
       </c>
       <c r="G11" t="n">
-        <v>37.61766660370938</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>245.0529484714533</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>270.3530479494102</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>289.6533061821568</v>
+        <v>231.665935126407</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>16.33806580504177</v>
       </c>
       <c r="D13" t="n">
-        <v>62.98464134895016</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>61.93239120472965</v>
       </c>
       <c r="F13" t="n">
-        <v>62.39931553291592</v>
+        <v>62.39931553291596</v>
       </c>
       <c r="G13" t="n">
-        <v>78.43302460524714</v>
+        <v>78.43302460524718</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>67.07973325206106</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>46.95714478044762</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>129.3226936933297</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23498,16 +23498,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>280.539192233484</v>
+        <v>280.5391922334839</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>302.2813298033894</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>321.4531458913666</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>240.6846310818786</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.55747718688171</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>131.2069945273324</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>88.64828093085453</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>270.3530479494103</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>289.6533061821569</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.16328210597131</v>
+        <v>83.41779905710106</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>61.93239120472957</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.39931553291588</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>78.4330246052471</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>46.95714478044754</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>45.23808849826169</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>194.7383045762102</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-3.04524729835603e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1053795.209270992</v>
+        <v>1053795.209270993</v>
       </c>
     </row>
     <row r="7">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>306350.6526029218</v>
+        <v>306350.6526029217</v>
       </c>
       <c r="C2" t="n">
-        <v>306350.6526029218</v>
+        <v>306350.6526029219</v>
       </c>
       <c r="D2" t="n">
-        <v>306988.0689478187</v>
+        <v>306988.0689478188</v>
       </c>
       <c r="E2" t="n">
         <v>267396.011075458</v>
       </c>
       <c r="F2" t="n">
-        <v>267396.0110754579</v>
+        <v>267396.011075458</v>
       </c>
       <c r="G2" t="n">
-        <v>307049.6241976732</v>
+        <v>307049.6241976731</v>
       </c>
       <c r="H2" t="n">
         <v>307049.6241976731</v>
@@ -26338,22 +26338,22 @@
         <v>307049.6241976728</v>
       </c>
       <c r="K2" t="n">
-        <v>307049.6241976727</v>
+        <v>307049.6241976729</v>
       </c>
       <c r="L2" t="n">
         <v>307049.6241976722</v>
       </c>
       <c r="M2" t="n">
-        <v>307049.6241976726</v>
+        <v>307049.6241976728</v>
       </c>
       <c r="N2" t="n">
         <v>307049.6241976728</v>
       </c>
       <c r="O2" t="n">
-        <v>307049.6241976727</v>
+        <v>307049.6241976728</v>
       </c>
       <c r="P2" t="n">
-        <v>307049.6241976727</v>
+        <v>307049.6241976728</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>364193.0327823791</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.58084380639983e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>61893.61656883114</v>
+        <v>61893.61656883112</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83192.20727529822</v>
+        <v>83192.20727529825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63965.37984460713</v>
+        <v>63965.3798446072</v>
       </c>
       <c r="M3" t="n">
-        <v>147607.1236882955</v>
+        <v>147607.1236882954</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20130.41834750241</v>
+        <v>20130.41834750257</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,7 +26424,7 @@
         <v>396776.6118112199</v>
       </c>
       <c r="E4" t="n">
-        <v>243850.6379113334</v>
+        <v>243850.6379113333</v>
       </c>
       <c r="F4" t="n">
         <v>243850.6379113334</v>
@@ -26442,16 +26442,16 @@
         <v>298128.2578581519</v>
       </c>
       <c r="K4" t="n">
-        <v>298128.2578581519</v>
+        <v>298128.2578581518</v>
       </c>
       <c r="L4" t="n">
-        <v>298074.6449804871</v>
+        <v>298074.6449804872</v>
       </c>
       <c r="M4" t="n">
         <v>297110.1202412423</v>
       </c>
       <c r="N4" t="n">
-        <v>297110.1202412423</v>
+        <v>297110.1202412422</v>
       </c>
       <c r="O4" t="n">
         <v>297110.1202412423</v>
@@ -26491,19 +26491,19 @@
         <v>55342.36067658162</v>
       </c>
       <c r="J5" t="n">
-        <v>64667.02949573722</v>
+        <v>64667.02949573723</v>
       </c>
       <c r="K5" t="n">
-        <v>64667.02949573722</v>
+        <v>64667.02949573721</v>
       </c>
       <c r="L5" t="n">
-        <v>64276.15485927401</v>
+        <v>64276.154859274</v>
       </c>
       <c r="M5" t="n">
         <v>57129.32798310796</v>
       </c>
       <c r="N5" t="n">
-        <v>57129.32798310795</v>
+        <v>57129.32798310796</v>
       </c>
       <c r="O5" t="n">
         <v>57129.32798310796</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-124347.1048007943</v>
+        <v>-124351.4733732616</v>
       </c>
       <c r="C6" t="n">
-        <v>-124347.1048007942</v>
+        <v>-124351.4733732614</v>
       </c>
       <c r="D6" t="n">
-        <v>-127134.0378537454</v>
+        <v>-127134.422574057</v>
       </c>
       <c r="E6" t="n">
-        <v>-389485.8522306798</v>
+        <v>-389733.6873126936</v>
       </c>
       <c r="F6" t="n">
-        <v>-25292.81944830077</v>
+        <v>-25540.65453031458</v>
       </c>
       <c r="G6" t="n">
         <v>-110419.4421435163</v>
@@ -26543,25 +26543,25 @@
         <v>-48525.82557468518</v>
       </c>
       <c r="J6" t="n">
-        <v>-138937.8704315145</v>
+        <v>-138937.8704315146</v>
       </c>
       <c r="K6" t="n">
-        <v>-55745.66315621638</v>
+        <v>-55745.66315621608</v>
       </c>
       <c r="L6" t="n">
-        <v>-119266.555486696</v>
+        <v>-119266.5554866961</v>
       </c>
       <c r="M6" t="n">
-        <v>-194796.9477149732</v>
+        <v>-194796.9477149728</v>
       </c>
       <c r="N6" t="n">
-        <v>-47189.82402667753</v>
+        <v>-47189.82402667736</v>
       </c>
       <c r="O6" t="n">
-        <v>-67320.24237417996</v>
+        <v>-67320.24237418015</v>
       </c>
       <c r="P6" t="n">
-        <v>-47189.8240266776</v>
+        <v>-47189.82402667749</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="F2" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="G2" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="H2" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="I2" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="J2" t="n">
         <v>102.5300436454171</v>
@@ -26713,16 +26713,16 @@
         <v>102.5300436454171</v>
       </c>
       <c r="L2" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="M2" t="n">
+        <v>152.7129079244023</v>
+      </c>
+      <c r="N2" t="n">
+        <v>152.7129079244023</v>
+      </c>
+      <c r="O2" t="n">
         <v>152.7129079244024</v>
-      </c>
-      <c r="N2" t="n">
-        <v>152.7129079244024</v>
-      </c>
-      <c r="O2" t="n">
-        <v>152.7129079244023</v>
       </c>
       <c r="P2" t="n">
         <v>152.7129079244023</v>
@@ -26808,28 +26808,28 @@
         <v>632.8937387712</v>
       </c>
       <c r="I4" t="n">
-        <v>632.8937387712</v>
+        <v>632.8937387711999</v>
       </c>
       <c r="J4" t="n">
-        <v>873.9150842933435</v>
+        <v>873.9150842933436</v>
       </c>
       <c r="K4" t="n">
-        <v>873.9150842933435</v>
+        <v>873.9150842933432</v>
       </c>
       <c r="L4" t="n">
-        <v>863.9054055104122</v>
+        <v>863.9054055104118</v>
       </c>
       <c r="M4" t="n">
+        <v>680.5511907127633</v>
+      </c>
+      <c r="N4" t="n">
+        <v>680.5511907127633</v>
+      </c>
+      <c r="O4" t="n">
         <v>680.5511907127632</v>
       </c>
-      <c r="N4" t="n">
-        <v>680.5511907127629</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>680.5511907127633</v>
-      </c>
-      <c r="P4" t="n">
-        <v>680.5511907127632</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.226054757999787e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>77.36702071103893</v>
+        <v>77.3670207110389</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.16302293437813</v>
+        <v>25.16302293437808</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.647140229519987e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>79.95672480575891</v>
+        <v>79.95672480575899</v>
       </c>
       <c r="M2" t="n">
-        <v>47.59316018426536</v>
+        <v>47.59316018426507</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.16302293437802</v>
+        <v>25.16302293437822</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0213455221435</v>
+        <v>241.0213455221437</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>439.5298451906197</v>
+        <v>439.5298451906201</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.226054757999787e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>77.36702071103893</v>
+        <v>77.3670207110389</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.16302293437813</v>
+        <v>25.16302293437808</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>9.647140229519987e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27859,7 +27859,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>380.8281839120228</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>80.91537856709924</v>
+        <v>79.72222485617382</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
@@ -27916,7 +27916,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>369.3933140017156</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -27929,19 +27929,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>147.8155695705169</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>150.0769572485235</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>127.4405718567587</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>123.337181286693</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>49.17674743307231</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
@@ -27995,7 +27995,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>195.9378182409833</v>
+        <v>185.928139458052</v>
       </c>
       <c r="Y9" t="n">
         <v>181.779588014911</v>
@@ -28029,10 +28029,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>133.9444888813423</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>49.44698741703764</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>138.0168847888342</v>
       </c>
       <c r="S10" t="n">
-        <v>201.5629861874179</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
         <v>230.8471636524779</v>
@@ -28068,13 +28068,13 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>248.1182726142302</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>273.2851586848435</v>
       </c>
       <c r="X10" t="n">
-        <v>228.939939463578</v>
+        <v>220.1234143915721</v>
       </c>
       <c r="Y10" t="n">
         <v>219.8148072196457</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="C11" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="D11" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="E11" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="F11" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="G11" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="H11" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="I11" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>55.98362202713892</v>
+        <v>55.98362202713891</v>
       </c>
       <c r="S11" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="T11" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="U11" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="V11" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="W11" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="X11" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="Y11" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
     </row>
     <row r="12">
@@ -28181,7 +28181,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="C13" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="D13" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="E13" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="F13" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="G13" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="H13" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="I13" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="J13" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="K13" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="L13" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="M13" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="N13" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="O13" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="P13" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="R13" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="S13" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="T13" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="U13" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="V13" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="W13" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="X13" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.55653289156473</v>
+        <v>88.55653289156469</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="C14" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="D14" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="E14" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="F14" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="G14" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="H14" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="I14" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>55.98362202713892</v>
+        <v>55.98362202713891</v>
       </c>
       <c r="S14" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="T14" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="U14" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="V14" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="W14" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="X14" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="Y14" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="C16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="D16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="E16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="F16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="G16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="H16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="I16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="J16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="K16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="L16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="M16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="N16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="O16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="P16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="R16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="S16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="T16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="U16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="V16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="W16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="X16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="C17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="D17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="E17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="F17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="G17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="H17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="I17" t="n">
         <v>150.3765419471388</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.98362202713892</v>
+        <v>55.98362202713891</v>
       </c>
       <c r="S17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="T17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="U17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="V17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="W17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="X17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="Y17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
     </row>
     <row r="18">
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="C19" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28734,7 +28734,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="H19" t="n">
         <v>155.6362661436258</v>
@@ -28743,7 +28743,7 @@
         <v>135.5136776720123</v>
       </c>
       <c r="J19" t="n">
-        <v>42.4184152144945</v>
+        <v>42.41841521449449</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>137.1906127714368</v>
       </c>
       <c r="S19" t="n">
-        <v>165.9235536026036</v>
+        <v>10.57109743188064</v>
       </c>
       <c r="T19" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="U19" t="n">
-        <v>10.57109743188101</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="V19" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="W19" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="X19" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="C20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="D20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="E20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="F20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="G20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="H20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="I20" t="n">
         <v>150.3765419471388</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>55.98362202713892</v>
+        <v>55.98362202713891</v>
       </c>
       <c r="S20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="T20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="U20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="V20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="W20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="X20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="Y20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
     </row>
     <row r="21">
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="C22" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28971,16 +28971,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2838099729031569</v>
+        <v>155.6362661436258</v>
       </c>
       <c r="I22" t="n">
         <v>135.5136776720123</v>
       </c>
       <c r="J22" t="n">
-        <v>42.4184152144945</v>
+        <v>42.41841521449449</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>137.1906127714368</v>
       </c>
       <c r="S22" t="n">
-        <v>165.9235536026036</v>
+        <v>10.57109743188064</v>
       </c>
       <c r="T22" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="U22" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="V22" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="W22" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="X22" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="C23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="D23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="E23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="F23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="G23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="H23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="I23" t="n">
         <v>150.3765419471388</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.98362202713892</v>
+        <v>55.98362202713891</v>
       </c>
       <c r="S23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="T23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="U23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="V23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="W23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="X23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="Y23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
     </row>
     <row r="24">
@@ -29126,7 +29126,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>-1.151079231931362e-12</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="C25" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29208,7 +29208,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="H25" t="n">
         <v>155.6362661436258</v>
@@ -29217,7 +29217,7 @@
         <v>135.5136776720123</v>
       </c>
       <c r="J25" t="n">
-        <v>42.4184152144945</v>
+        <v>42.41841521449449</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>17.9720361047386</v>
       </c>
       <c r="R25" t="n">
         <v>137.1906127714368</v>
       </c>
       <c r="S25" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="T25" t="n">
-        <v>165.9235536026036</v>
+        <v>10.57109743188073</v>
       </c>
       <c r="U25" t="n">
-        <v>28.54313353661962</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="V25" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="W25" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="X25" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="Y25" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
     </row>
     <row r="26">
@@ -29308,7 +29308,7 @@
         <v>102.5300436454171</v>
       </c>
       <c r="N26" t="n">
-        <v>102.5300436454171</v>
+        <v>1.386164617211762</v>
       </c>
       <c r="O26" t="n">
         <v>102.5300436454171</v>
@@ -29317,7 +29317,7 @@
         <v>102.5300436454171</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.386164617211421</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="R26" t="n">
         <v>102.5300436454171</v>
@@ -29539,7 +29539,7 @@
         <v>102.5300436454171</v>
       </c>
       <c r="L29" t="n">
-        <v>1.386164617211421</v>
+        <v>1.38616461721</v>
       </c>
       <c r="M29" t="n">
         <v>102.5300436454171</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="C32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="D32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="E32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="F32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="G32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="H32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="I32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="J32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="K32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="L32" t="n">
-        <v>105.119747740137</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="N32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="O32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="Q32" t="n">
-        <v>95.29012164683826</v>
+        <v>46.15399593383796</v>
       </c>
       <c r="R32" t="n">
-        <v>55.98362202713893</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="S32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="T32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="U32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="V32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="W32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="X32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="Y32" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="C34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="D34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="E34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="F34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="G34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="H34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="I34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="J34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="K34" t="n">
-        <v>42.12554573891232</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="L34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="M34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="N34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="O34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="P34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="Q34" t="n">
-        <v>105.119747740137</v>
+        <v>42.12554573890895</v>
       </c>
       <c r="R34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="S34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="T34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="U34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="V34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="W34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="X34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
       <c r="Y34" t="n">
-        <v>105.119747740137</v>
+        <v>105.1197477401372</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="C35" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="D35" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="E35" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="F35" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="G35" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="H35" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="I35" t="n">
         <v>150.3765419471388</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.98362202713893</v>
+        <v>55.98362202713891</v>
       </c>
       <c r="S35" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="T35" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="U35" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="V35" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="W35" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="X35" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="Y35" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="C37" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30156,16 +30156,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="H37" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="I37" t="n">
         <v>135.5136776720123</v>
       </c>
       <c r="J37" t="n">
-        <v>42.4184152144945</v>
+        <v>42.41841521449449</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.97203610473861</v>
+        <v>17.9720361047386</v>
       </c>
       <c r="R37" t="n">
         <v>137.1906127714368</v>
       </c>
       <c r="S37" t="n">
-        <v>132.3902667549154</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="T37" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="U37" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="V37" t="n">
-        <v>152.7129079244024</v>
+        <v>132.390266754917</v>
       </c>
       <c r="W37" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="X37" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="Y37" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="C38" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="D38" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="E38" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="F38" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="G38" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="H38" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="I38" t="n">
         <v>150.3765419471388</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.98362202713893</v>
+        <v>55.98362202713891</v>
       </c>
       <c r="S38" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="T38" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="U38" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="V38" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="W38" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="X38" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="Y38" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
     </row>
     <row r="39">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="C40" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,16 +30393,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="H40" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="I40" t="n">
         <v>135.5136776720123</v>
       </c>
       <c r="J40" t="n">
-        <v>42.4184152144945</v>
+        <v>42.41841521449449</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.97203610473861</v>
+        <v>17.9720361047386</v>
       </c>
       <c r="R40" t="n">
-        <v>116.8679716019499</v>
+        <v>137.1906127714368</v>
       </c>
       <c r="S40" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="T40" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="U40" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="V40" t="n">
-        <v>152.7129079244024</v>
+        <v>132.390266754917</v>
       </c>
       <c r="W40" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="X40" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="Y40" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="C41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="D41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="E41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="F41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="G41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="H41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="I41" t="n">
         <v>150.3765419471388</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.98362202713893</v>
+        <v>55.98362202713891</v>
       </c>
       <c r="S41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="T41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="U41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="V41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="W41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="X41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="Y41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="C43" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,16 +30630,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="H43" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="I43" t="n">
         <v>135.5136776720123</v>
       </c>
       <c r="J43" t="n">
-        <v>40.0678101497473</v>
+        <v>42.41841521449449</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>17.9720361047386</v>
       </c>
       <c r="R43" t="n">
         <v>137.1906127714368</v>
       </c>
       <c r="S43" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="T43" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="U43" t="n">
-        <v>152.7129079244023</v>
+        <v>132.3902667549154</v>
       </c>
       <c r="V43" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="W43" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="X43" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="Y43" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
     </row>
     <row r="44">
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.98362202713893</v>
+        <v>55.98362202713891</v>
       </c>
       <c r="S44" t="n">
         <v>152.7129079244023</v>
@@ -30876,7 +30876,7 @@
         <v>135.5136776720123</v>
       </c>
       <c r="J46" t="n">
-        <v>42.4184152144945</v>
+        <v>42.41841521449449</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,13 +30897,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.97203610473861</v>
+        <v>17.9720361047386</v>
       </c>
       <c r="R46" t="n">
-        <v>116.8679716019508</v>
+        <v>137.1906127714368</v>
       </c>
       <c r="S46" t="n">
-        <v>152.7129079244023</v>
+        <v>132.3902667549163</v>
       </c>
       <c r="T46" t="n">
         <v>152.7129079244023</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5372540005486834</v>
+        <v>0.5372540005486836</v>
       </c>
       <c r="H11" t="n">
-        <v>5.502152533119205</v>
+        <v>5.502152533119207</v>
       </c>
       <c r="I11" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J11" t="n">
-        <v>45.59876172906886</v>
+        <v>45.59876172906888</v>
       </c>
       <c r="K11" t="n">
-        <v>68.34072357229465</v>
+        <v>68.34072357229466</v>
       </c>
       <c r="L11" t="n">
-        <v>84.78271069158643</v>
+        <v>84.78271069158646</v>
       </c>
       <c r="M11" t="n">
-        <v>94.33710152384408</v>
+        <v>94.3371015238441</v>
       </c>
       <c r="N11" t="n">
-        <v>95.86357445290304</v>
+        <v>95.86357445290305</v>
       </c>
       <c r="O11" t="n">
-        <v>90.52125498494706</v>
+        <v>90.52125498494708</v>
       </c>
       <c r="P11" t="n">
-        <v>77.25779684640142</v>
+        <v>77.25779684640145</v>
       </c>
       <c r="Q11" t="n">
-        <v>58.01738795175168</v>
+        <v>58.01738795175169</v>
       </c>
       <c r="R11" t="n">
-        <v>33.74828161196626</v>
+        <v>33.74828161196628</v>
       </c>
       <c r="S11" t="n">
         <v>12.24267553750314</v>
@@ -31792,7 +31792,7 @@
         <v>2.351829387401863</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04298032004389467</v>
+        <v>0.04298032004389468</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,40 +31832,40 @@
         <v>0.2874562324633831</v>
       </c>
       <c r="H12" t="n">
-        <v>2.776222034580568</v>
+        <v>2.776222034580569</v>
       </c>
       <c r="I12" t="n">
-        <v>9.897067652796304</v>
+        <v>9.897067652796306</v>
       </c>
       <c r="J12" t="n">
-        <v>27.1583101030427</v>
+        <v>27.15831010304271</v>
       </c>
       <c r="K12" t="n">
-        <v>46.41787767808936</v>
+        <v>46.41787767808938</v>
       </c>
       <c r="L12" t="n">
-        <v>62.41456486008676</v>
+        <v>62.41456486008677</v>
       </c>
       <c r="M12" t="n">
-        <v>72.83485328688438</v>
+        <v>72.8348532868844</v>
       </c>
       <c r="N12" t="n">
-        <v>74.76257512651821</v>
+        <v>74.76257512651823</v>
       </c>
       <c r="O12" t="n">
-        <v>68.39315018614535</v>
+        <v>68.39315018614538</v>
       </c>
       <c r="P12" t="n">
-        <v>54.89153267101216</v>
+        <v>54.89153267101217</v>
       </c>
       <c r="Q12" t="n">
         <v>36.69353591936098</v>
       </c>
       <c r="R12" t="n">
-        <v>17.84750187171777</v>
+        <v>17.84750187171778</v>
       </c>
       <c r="S12" t="n">
-        <v>5.339373440712397</v>
+        <v>5.339373440712398</v>
       </c>
       <c r="T12" t="n">
         <v>1.158650340499338</v>
@@ -31914,25 +31914,25 @@
         <v>2.142652624893156</v>
       </c>
       <c r="I13" t="n">
-        <v>7.247336281335948</v>
+        <v>7.24733628133595</v>
       </c>
       <c r="J13" t="n">
-        <v>17.0382509854745</v>
+        <v>17.03825098547451</v>
       </c>
       <c r="K13" t="n">
-        <v>27.99908031302097</v>
+        <v>27.99908031302098</v>
       </c>
       <c r="L13" t="n">
-        <v>35.82918305470619</v>
+        <v>35.8291830547062</v>
       </c>
       <c r="M13" t="n">
-        <v>37.77684990903135</v>
+        <v>37.77684990903136</v>
       </c>
       <c r="N13" t="n">
-        <v>36.87860085360582</v>
+        <v>36.87860085360583</v>
       </c>
       <c r="O13" t="n">
-        <v>34.06335686282084</v>
+        <v>34.06335686282085</v>
       </c>
       <c r="P13" t="n">
         <v>29.14708642288192</v>
@@ -31944,7 +31944,7 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S13" t="n">
-        <v>4.199862046953145</v>
+        <v>4.199862046953146</v>
       </c>
       <c r="T13" t="n">
         <v>1.029700136707344</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5372540005486834</v>
+        <v>0.5372540005486836</v>
       </c>
       <c r="H14" t="n">
-        <v>5.502152533119205</v>
+        <v>5.502152533119207</v>
       </c>
       <c r="I14" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J14" t="n">
-        <v>45.59876172906886</v>
+        <v>45.59876172906888</v>
       </c>
       <c r="K14" t="n">
-        <v>68.34072357229465</v>
+        <v>68.34072357229466</v>
       </c>
       <c r="L14" t="n">
-        <v>84.78271069158643</v>
+        <v>84.78271069158646</v>
       </c>
       <c r="M14" t="n">
-        <v>94.33710152384408</v>
+        <v>94.3371015238441</v>
       </c>
       <c r="N14" t="n">
-        <v>95.86357445290304</v>
+        <v>95.86357445290305</v>
       </c>
       <c r="O14" t="n">
-        <v>90.52125498494706</v>
+        <v>90.52125498494708</v>
       </c>
       <c r="P14" t="n">
-        <v>77.25779684640142</v>
+        <v>77.25779684640145</v>
       </c>
       <c r="Q14" t="n">
-        <v>58.01738795175168</v>
+        <v>58.01738795175169</v>
       </c>
       <c r="R14" t="n">
-        <v>33.74828161196626</v>
+        <v>33.74828161196628</v>
       </c>
       <c r="S14" t="n">
         <v>12.24267553750314</v>
@@ -32029,7 +32029,7 @@
         <v>2.351829387401863</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04298032004389467</v>
+        <v>0.04298032004389468</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,40 +32069,40 @@
         <v>0.2874562324633831</v>
       </c>
       <c r="H15" t="n">
-        <v>2.776222034580568</v>
+        <v>2.776222034580569</v>
       </c>
       <c r="I15" t="n">
-        <v>9.897067652796304</v>
+        <v>9.897067652796306</v>
       </c>
       <c r="J15" t="n">
-        <v>27.1583101030427</v>
+        <v>27.15831010304271</v>
       </c>
       <c r="K15" t="n">
-        <v>46.41787767808936</v>
+        <v>46.41787767808938</v>
       </c>
       <c r="L15" t="n">
-        <v>62.41456486008676</v>
+        <v>62.41456486008677</v>
       </c>
       <c r="M15" t="n">
-        <v>72.83485328688438</v>
+        <v>72.8348532868844</v>
       </c>
       <c r="N15" t="n">
-        <v>74.76257512651821</v>
+        <v>74.76257512651823</v>
       </c>
       <c r="O15" t="n">
-        <v>68.39315018614535</v>
+        <v>68.39315018614538</v>
       </c>
       <c r="P15" t="n">
-        <v>54.89153267101216</v>
+        <v>54.89153267101217</v>
       </c>
       <c r="Q15" t="n">
         <v>36.69353591936098</v>
       </c>
       <c r="R15" t="n">
-        <v>17.84750187171777</v>
+        <v>17.84750187171778</v>
       </c>
       <c r="S15" t="n">
-        <v>5.339373440712397</v>
+        <v>5.339373440712398</v>
       </c>
       <c r="T15" t="n">
         <v>1.158650340499338</v>
@@ -32151,25 +32151,25 @@
         <v>2.142652624893156</v>
       </c>
       <c r="I16" t="n">
-        <v>7.247336281335948</v>
+        <v>7.24733628133595</v>
       </c>
       <c r="J16" t="n">
-        <v>17.0382509854745</v>
+        <v>17.03825098547451</v>
       </c>
       <c r="K16" t="n">
-        <v>27.99908031302097</v>
+        <v>27.99908031302098</v>
       </c>
       <c r="L16" t="n">
-        <v>35.82918305470619</v>
+        <v>35.8291830547062</v>
       </c>
       <c r="M16" t="n">
-        <v>37.77684990903135</v>
+        <v>37.77684990903136</v>
       </c>
       <c r="N16" t="n">
-        <v>36.87860085360582</v>
+        <v>36.87860085360583</v>
       </c>
       <c r="O16" t="n">
-        <v>34.06335686282084</v>
+        <v>34.06335686282085</v>
       </c>
       <c r="P16" t="n">
         <v>29.14708642288192</v>
@@ -32181,7 +32181,7 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S16" t="n">
-        <v>4.199862046953145</v>
+        <v>4.199862046953146</v>
       </c>
       <c r="T16" t="n">
         <v>1.029700136707344</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5372540005486834</v>
+        <v>0.5372540005486836</v>
       </c>
       <c r="H17" t="n">
-        <v>5.502152533119205</v>
+        <v>5.502152533119207</v>
       </c>
       <c r="I17" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J17" t="n">
-        <v>45.59876172906886</v>
+        <v>45.59876172906888</v>
       </c>
       <c r="K17" t="n">
-        <v>68.34072357229465</v>
+        <v>68.34072357229466</v>
       </c>
       <c r="L17" t="n">
-        <v>84.78271069158643</v>
+        <v>84.78271069158646</v>
       </c>
       <c r="M17" t="n">
-        <v>94.33710152384408</v>
+        <v>94.3371015238441</v>
       </c>
       <c r="N17" t="n">
-        <v>95.86357445290304</v>
+        <v>95.86357445290305</v>
       </c>
       <c r="O17" t="n">
-        <v>90.52125498494706</v>
+        <v>90.52125498494708</v>
       </c>
       <c r="P17" t="n">
-        <v>77.25779684640142</v>
+        <v>77.25779684640145</v>
       </c>
       <c r="Q17" t="n">
-        <v>58.01738795175168</v>
+        <v>58.01738795175169</v>
       </c>
       <c r="R17" t="n">
-        <v>33.74828161196626</v>
+        <v>33.74828161196628</v>
       </c>
       <c r="S17" t="n">
         <v>12.24267553750314</v>
@@ -32266,7 +32266,7 @@
         <v>2.351829387401863</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04298032004389467</v>
+        <v>0.04298032004389468</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,40 +32306,40 @@
         <v>0.2874562324633831</v>
       </c>
       <c r="H18" t="n">
-        <v>2.776222034580568</v>
+        <v>2.776222034580569</v>
       </c>
       <c r="I18" t="n">
-        <v>9.897067652796304</v>
+        <v>9.897067652796306</v>
       </c>
       <c r="J18" t="n">
-        <v>27.1583101030427</v>
+        <v>27.15831010304271</v>
       </c>
       <c r="K18" t="n">
-        <v>46.41787767808936</v>
+        <v>46.41787767808938</v>
       </c>
       <c r="L18" t="n">
-        <v>62.41456486008676</v>
+        <v>62.41456486008677</v>
       </c>
       <c r="M18" t="n">
-        <v>72.83485328688438</v>
+        <v>72.8348532868844</v>
       </c>
       <c r="N18" t="n">
-        <v>74.76257512651821</v>
+        <v>74.76257512651823</v>
       </c>
       <c r="O18" t="n">
-        <v>68.39315018614535</v>
+        <v>68.39315018614538</v>
       </c>
       <c r="P18" t="n">
-        <v>54.89153267101216</v>
+        <v>54.89153267101217</v>
       </c>
       <c r="Q18" t="n">
         <v>36.69353591936098</v>
       </c>
       <c r="R18" t="n">
-        <v>17.84750187171777</v>
+        <v>17.84750187171778</v>
       </c>
       <c r="S18" t="n">
-        <v>5.339373440712397</v>
+        <v>5.339373440712398</v>
       </c>
       <c r="T18" t="n">
         <v>1.158650340499338</v>
@@ -32388,25 +32388,25 @@
         <v>2.142652624893156</v>
       </c>
       <c r="I19" t="n">
-        <v>7.247336281335948</v>
+        <v>7.24733628133595</v>
       </c>
       <c r="J19" t="n">
-        <v>17.0382509854745</v>
+        <v>17.03825098547451</v>
       </c>
       <c r="K19" t="n">
-        <v>27.99908031302097</v>
+        <v>27.99908031302098</v>
       </c>
       <c r="L19" t="n">
-        <v>35.82918305470619</v>
+        <v>35.8291830547062</v>
       </c>
       <c r="M19" t="n">
-        <v>37.77684990903135</v>
+        <v>37.77684990903136</v>
       </c>
       <c r="N19" t="n">
-        <v>36.87860085360582</v>
+        <v>36.87860085360583</v>
       </c>
       <c r="O19" t="n">
-        <v>34.06335686282084</v>
+        <v>34.06335686282085</v>
       </c>
       <c r="P19" t="n">
         <v>29.14708642288192</v>
@@ -32418,7 +32418,7 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S19" t="n">
-        <v>4.199862046953145</v>
+        <v>4.199862046953146</v>
       </c>
       <c r="T19" t="n">
         <v>1.029700136707344</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5372540005486834</v>
+        <v>0.5372540005486836</v>
       </c>
       <c r="H20" t="n">
-        <v>5.502152533119205</v>
+        <v>5.502152533119207</v>
       </c>
       <c r="I20" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J20" t="n">
-        <v>45.59876172906886</v>
+        <v>45.59876172906888</v>
       </c>
       <c r="K20" t="n">
-        <v>68.34072357229465</v>
+        <v>68.34072357229466</v>
       </c>
       <c r="L20" t="n">
-        <v>84.78271069158643</v>
+        <v>84.78271069158646</v>
       </c>
       <c r="M20" t="n">
-        <v>94.33710152384408</v>
+        <v>94.3371015238441</v>
       </c>
       <c r="N20" t="n">
-        <v>95.86357445290304</v>
+        <v>95.86357445290305</v>
       </c>
       <c r="O20" t="n">
-        <v>90.52125498494706</v>
+        <v>90.52125498494708</v>
       </c>
       <c r="P20" t="n">
-        <v>77.25779684640142</v>
+        <v>77.25779684640145</v>
       </c>
       <c r="Q20" t="n">
-        <v>58.01738795175168</v>
+        <v>58.01738795175169</v>
       </c>
       <c r="R20" t="n">
-        <v>33.74828161196626</v>
+        <v>33.74828161196628</v>
       </c>
       <c r="S20" t="n">
         <v>12.24267553750314</v>
@@ -32503,7 +32503,7 @@
         <v>2.351829387401863</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04298032004389467</v>
+        <v>0.04298032004389468</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,40 +32543,40 @@
         <v>0.2874562324633831</v>
       </c>
       <c r="H21" t="n">
-        <v>2.776222034580568</v>
+        <v>2.776222034580569</v>
       </c>
       <c r="I21" t="n">
-        <v>9.897067652796304</v>
+        <v>9.897067652796306</v>
       </c>
       <c r="J21" t="n">
-        <v>27.1583101030427</v>
+        <v>27.15831010304271</v>
       </c>
       <c r="K21" t="n">
-        <v>46.41787767808936</v>
+        <v>46.41787767808938</v>
       </c>
       <c r="L21" t="n">
-        <v>62.41456486008676</v>
+        <v>62.41456486008677</v>
       </c>
       <c r="M21" t="n">
-        <v>72.83485328688438</v>
+        <v>72.8348532868844</v>
       </c>
       <c r="N21" t="n">
-        <v>74.76257512651821</v>
+        <v>74.76257512651823</v>
       </c>
       <c r="O21" t="n">
-        <v>68.39315018614535</v>
+        <v>68.39315018614538</v>
       </c>
       <c r="P21" t="n">
-        <v>54.89153267101216</v>
+        <v>54.89153267101217</v>
       </c>
       <c r="Q21" t="n">
         <v>36.69353591936098</v>
       </c>
       <c r="R21" t="n">
-        <v>17.84750187171777</v>
+        <v>17.84750187171778</v>
       </c>
       <c r="S21" t="n">
-        <v>5.339373440712397</v>
+        <v>5.339373440712398</v>
       </c>
       <c r="T21" t="n">
         <v>1.158650340499338</v>
@@ -32625,25 +32625,25 @@
         <v>2.142652624893156</v>
       </c>
       <c r="I22" t="n">
-        <v>7.247336281335948</v>
+        <v>7.24733628133595</v>
       </c>
       <c r="J22" t="n">
-        <v>17.0382509854745</v>
+        <v>17.03825098547451</v>
       </c>
       <c r="K22" t="n">
-        <v>27.99908031302097</v>
+        <v>27.99908031302098</v>
       </c>
       <c r="L22" t="n">
-        <v>35.82918305470619</v>
+        <v>35.8291830547062</v>
       </c>
       <c r="M22" t="n">
-        <v>37.77684990903135</v>
+        <v>37.77684990903136</v>
       </c>
       <c r="N22" t="n">
-        <v>36.87860085360582</v>
+        <v>36.87860085360583</v>
       </c>
       <c r="O22" t="n">
-        <v>34.06335686282084</v>
+        <v>34.06335686282085</v>
       </c>
       <c r="P22" t="n">
         <v>29.14708642288192</v>
@@ -32655,7 +32655,7 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S22" t="n">
-        <v>4.199862046953145</v>
+        <v>4.199862046953146</v>
       </c>
       <c r="T22" t="n">
         <v>1.029700136707344</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5372540005486834</v>
+        <v>0.5372540005486836</v>
       </c>
       <c r="H23" t="n">
-        <v>5.502152533119205</v>
+        <v>5.502152533119207</v>
       </c>
       <c r="I23" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J23" t="n">
-        <v>45.59876172906886</v>
+        <v>45.59876172906888</v>
       </c>
       <c r="K23" t="n">
-        <v>68.34072357229465</v>
+        <v>68.34072357229466</v>
       </c>
       <c r="L23" t="n">
-        <v>84.78271069158643</v>
+        <v>84.78271069158646</v>
       </c>
       <c r="M23" t="n">
-        <v>94.33710152384408</v>
+        <v>94.3371015238441</v>
       </c>
       <c r="N23" t="n">
-        <v>95.86357445290304</v>
+        <v>95.86357445290305</v>
       </c>
       <c r="O23" t="n">
-        <v>90.52125498494706</v>
+        <v>90.52125498494708</v>
       </c>
       <c r="P23" t="n">
-        <v>77.25779684640142</v>
+        <v>77.25779684640145</v>
       </c>
       <c r="Q23" t="n">
-        <v>58.01738795175168</v>
+        <v>58.01738795175169</v>
       </c>
       <c r="R23" t="n">
-        <v>33.74828161196626</v>
+        <v>33.74828161196628</v>
       </c>
       <c r="S23" t="n">
         <v>12.24267553750314</v>
@@ -32740,7 +32740,7 @@
         <v>2.351829387401863</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04298032004389467</v>
+        <v>0.04298032004389468</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,40 +32780,40 @@
         <v>0.2874562324633831</v>
       </c>
       <c r="H24" t="n">
-        <v>2.776222034580568</v>
+        <v>2.776222034580569</v>
       </c>
       <c r="I24" t="n">
-        <v>9.897067652796304</v>
+        <v>9.897067652796306</v>
       </c>
       <c r="J24" t="n">
-        <v>27.1583101030427</v>
+        <v>27.15831010304271</v>
       </c>
       <c r="K24" t="n">
-        <v>46.41787767808936</v>
+        <v>46.41787767808938</v>
       </c>
       <c r="L24" t="n">
-        <v>62.41456486008676</v>
+        <v>62.41456486008677</v>
       </c>
       <c r="M24" t="n">
-        <v>72.83485328688438</v>
+        <v>72.8348532868844</v>
       </c>
       <c r="N24" t="n">
-        <v>74.76257512651821</v>
+        <v>74.76257512651823</v>
       </c>
       <c r="O24" t="n">
-        <v>68.39315018614535</v>
+        <v>68.39315018614538</v>
       </c>
       <c r="P24" t="n">
-        <v>54.89153267101216</v>
+        <v>54.89153267101217</v>
       </c>
       <c r="Q24" t="n">
         <v>36.69353591936098</v>
       </c>
       <c r="R24" t="n">
-        <v>17.84750187171777</v>
+        <v>17.84750187171778</v>
       </c>
       <c r="S24" t="n">
-        <v>5.339373440712397</v>
+        <v>5.339373440712398</v>
       </c>
       <c r="T24" t="n">
         <v>1.158650340499338</v>
@@ -32862,25 +32862,25 @@
         <v>2.142652624893156</v>
       </c>
       <c r="I25" t="n">
-        <v>7.247336281335948</v>
+        <v>7.24733628133595</v>
       </c>
       <c r="J25" t="n">
-        <v>17.0382509854745</v>
+        <v>17.03825098547451</v>
       </c>
       <c r="K25" t="n">
-        <v>27.99908031302097</v>
+        <v>27.99908031302098</v>
       </c>
       <c r="L25" t="n">
-        <v>35.82918305470619</v>
+        <v>35.8291830547062</v>
       </c>
       <c r="M25" t="n">
-        <v>37.77684990903135</v>
+        <v>37.77684990903136</v>
       </c>
       <c r="N25" t="n">
-        <v>36.87860085360582</v>
+        <v>36.87860085360583</v>
       </c>
       <c r="O25" t="n">
-        <v>34.06335686282084</v>
+        <v>34.06335686282085</v>
       </c>
       <c r="P25" t="n">
         <v>29.14708642288192</v>
@@ -32892,7 +32892,7 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S25" t="n">
-        <v>4.199862046953145</v>
+        <v>4.199862046953146</v>
       </c>
       <c r="T25" t="n">
         <v>1.029700136707344</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5372540005486834</v>
+        <v>0.5372540005486836</v>
       </c>
       <c r="H26" t="n">
-        <v>5.502152533119205</v>
+        <v>5.502152533119207</v>
       </c>
       <c r="I26" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J26" t="n">
-        <v>45.59876172906886</v>
+        <v>45.59876172906888</v>
       </c>
       <c r="K26" t="n">
-        <v>68.34072357229465</v>
+        <v>68.34072357229466</v>
       </c>
       <c r="L26" t="n">
-        <v>84.78271069158643</v>
+        <v>84.78271069158646</v>
       </c>
       <c r="M26" t="n">
-        <v>94.33710152384408</v>
+        <v>94.3371015238441</v>
       </c>
       <c r="N26" t="n">
-        <v>95.86357445290304</v>
+        <v>95.86357445290305</v>
       </c>
       <c r="O26" t="n">
-        <v>90.52125498494706</v>
+        <v>90.52125498494708</v>
       </c>
       <c r="P26" t="n">
-        <v>77.25779684640142</v>
+        <v>77.25779684640145</v>
       </c>
       <c r="Q26" t="n">
-        <v>58.01738795175168</v>
+        <v>58.01738795175169</v>
       </c>
       <c r="R26" t="n">
-        <v>33.74828161196626</v>
+        <v>33.74828161196628</v>
       </c>
       <c r="S26" t="n">
         <v>12.24267553750314</v>
@@ -32977,7 +32977,7 @@
         <v>2.351829387401863</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04298032004389467</v>
+        <v>0.04298032004389468</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,40 +33017,40 @@
         <v>0.2874562324633831</v>
       </c>
       <c r="H27" t="n">
-        <v>2.776222034580568</v>
+        <v>2.776222034580569</v>
       </c>
       <c r="I27" t="n">
-        <v>9.897067652796304</v>
+        <v>9.897067652796306</v>
       </c>
       <c r="J27" t="n">
-        <v>27.1583101030427</v>
+        <v>27.15831010304271</v>
       </c>
       <c r="K27" t="n">
-        <v>46.41787767808936</v>
+        <v>46.41787767808938</v>
       </c>
       <c r="L27" t="n">
-        <v>62.41456486008676</v>
+        <v>62.41456486008677</v>
       </c>
       <c r="M27" t="n">
-        <v>72.83485328688438</v>
+        <v>72.8348532868844</v>
       </c>
       <c r="N27" t="n">
-        <v>74.76257512651821</v>
+        <v>74.76257512651823</v>
       </c>
       <c r="O27" t="n">
-        <v>68.39315018614535</v>
+        <v>68.39315018614538</v>
       </c>
       <c r="P27" t="n">
-        <v>54.89153267101216</v>
+        <v>54.89153267101217</v>
       </c>
       <c r="Q27" t="n">
         <v>36.69353591936098</v>
       </c>
       <c r="R27" t="n">
-        <v>17.84750187171777</v>
+        <v>17.84750187171778</v>
       </c>
       <c r="S27" t="n">
-        <v>5.339373440712397</v>
+        <v>5.339373440712398</v>
       </c>
       <c r="T27" t="n">
         <v>1.158650340499338</v>
@@ -33099,25 +33099,25 @@
         <v>2.142652624893156</v>
       </c>
       <c r="I28" t="n">
-        <v>7.247336281335948</v>
+        <v>7.24733628133595</v>
       </c>
       <c r="J28" t="n">
-        <v>17.0382509854745</v>
+        <v>17.03825098547451</v>
       </c>
       <c r="K28" t="n">
-        <v>27.99908031302097</v>
+        <v>27.99908031302098</v>
       </c>
       <c r="L28" t="n">
-        <v>35.82918305470619</v>
+        <v>35.8291830547062</v>
       </c>
       <c r="M28" t="n">
-        <v>37.77684990903135</v>
+        <v>37.77684990903136</v>
       </c>
       <c r="N28" t="n">
-        <v>36.87860085360582</v>
+        <v>36.87860085360583</v>
       </c>
       <c r="O28" t="n">
-        <v>34.06335686282084</v>
+        <v>34.06335686282085</v>
       </c>
       <c r="P28" t="n">
         <v>29.14708642288192</v>
@@ -33129,7 +33129,7 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S28" t="n">
-        <v>4.199862046953145</v>
+        <v>4.199862046953146</v>
       </c>
       <c r="T28" t="n">
         <v>1.029700136707344</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5372540005486833</v>
+        <v>0.5372540005486836</v>
       </c>
       <c r="H29" t="n">
-        <v>5.502152533119204</v>
+        <v>5.502152533119207</v>
       </c>
       <c r="I29" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J29" t="n">
-        <v>45.59876172906885</v>
+        <v>45.59876172906888</v>
       </c>
       <c r="K29" t="n">
-        <v>68.34072357229464</v>
+        <v>68.34072357229466</v>
       </c>
       <c r="L29" t="n">
-        <v>84.78271069158642</v>
+        <v>84.78271069158646</v>
       </c>
       <c r="M29" t="n">
-        <v>94.33710152384405</v>
+        <v>94.3371015238441</v>
       </c>
       <c r="N29" t="n">
-        <v>95.86357445290301</v>
+        <v>95.86357445290305</v>
       </c>
       <c r="O29" t="n">
-        <v>90.52125498494703</v>
+        <v>90.52125498494708</v>
       </c>
       <c r="P29" t="n">
-        <v>77.2577968464014</v>
+        <v>77.25779684640145</v>
       </c>
       <c r="Q29" t="n">
-        <v>58.01738795175167</v>
+        <v>58.01738795175169</v>
       </c>
       <c r="R29" t="n">
-        <v>33.74828161196626</v>
+        <v>33.74828161196628</v>
       </c>
       <c r="S29" t="n">
-        <v>12.24267553750313</v>
+        <v>12.24267553750314</v>
       </c>
       <c r="T29" t="n">
         <v>2.351829387401863</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04298032004389466</v>
+        <v>0.04298032004389468</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.287456232463383</v>
+        <v>0.2874562324633831</v>
       </c>
       <c r="H30" t="n">
-        <v>2.776222034580568</v>
+        <v>2.776222034580569</v>
       </c>
       <c r="I30" t="n">
-        <v>9.897067652796302</v>
+        <v>9.897067652796306</v>
       </c>
       <c r="J30" t="n">
-        <v>27.15831010304269</v>
+        <v>27.15831010304271</v>
       </c>
       <c r="K30" t="n">
-        <v>46.41787767808935</v>
+        <v>46.41787767808938</v>
       </c>
       <c r="L30" t="n">
-        <v>62.41456486008674</v>
+        <v>62.41456486008677</v>
       </c>
       <c r="M30" t="n">
-        <v>72.83485328688435</v>
+        <v>72.8348532868844</v>
       </c>
       <c r="N30" t="n">
-        <v>74.7625751265182</v>
+        <v>74.76257512651823</v>
       </c>
       <c r="O30" t="n">
-        <v>68.39315018614533</v>
+        <v>68.39315018614538</v>
       </c>
       <c r="P30" t="n">
-        <v>54.89153267101215</v>
+        <v>54.89153267101217</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.69353591936096</v>
+        <v>36.69353591936098</v>
       </c>
       <c r="R30" t="n">
-        <v>17.84750187171777</v>
+        <v>17.84750187171778</v>
       </c>
       <c r="S30" t="n">
-        <v>5.339373440712396</v>
+        <v>5.339373440712398</v>
       </c>
       <c r="T30" t="n">
-        <v>1.158650340499337</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U30" t="n">
         <v>0.01891159424101205</v>
@@ -33330,34 +33330,34 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2409936490166124</v>
+        <v>0.2409936490166125</v>
       </c>
       <c r="H31" t="n">
-        <v>2.142652624893155</v>
+        <v>2.142652624893156</v>
       </c>
       <c r="I31" t="n">
-        <v>7.247336281335946</v>
+        <v>7.24733628133595</v>
       </c>
       <c r="J31" t="n">
-        <v>17.0382509854745</v>
+        <v>17.03825098547451</v>
       </c>
       <c r="K31" t="n">
-        <v>27.99908031302096</v>
+        <v>27.99908031302098</v>
       </c>
       <c r="L31" t="n">
-        <v>35.82918305470618</v>
+        <v>35.8291830547062</v>
       </c>
       <c r="M31" t="n">
-        <v>37.77684990903134</v>
+        <v>37.77684990903136</v>
       </c>
       <c r="N31" t="n">
-        <v>36.87860085360582</v>
+        <v>36.87860085360583</v>
       </c>
       <c r="O31" t="n">
-        <v>34.06335686282083</v>
+        <v>34.06335686282085</v>
       </c>
       <c r="P31" t="n">
-        <v>29.14708642288191</v>
+        <v>29.14708642288192</v>
       </c>
       <c r="Q31" t="n">
         <v>20.17993182810925</v>
@@ -33366,13 +33366,13 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S31" t="n">
-        <v>4.199862046953144</v>
+        <v>4.199862046953146</v>
       </c>
       <c r="T31" t="n">
         <v>1.029700136707344</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01314510812817887</v>
+        <v>0.01314510812817888</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5372540005486833</v>
+        <v>0.5372540005486836</v>
       </c>
       <c r="H32" t="n">
-        <v>5.502152533119204</v>
+        <v>5.502152533119207</v>
       </c>
       <c r="I32" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J32" t="n">
-        <v>45.59876172906885</v>
+        <v>45.59876172906888</v>
       </c>
       <c r="K32" t="n">
-        <v>68.34072357229464</v>
+        <v>68.34072357229466</v>
       </c>
       <c r="L32" t="n">
-        <v>84.78271069158642</v>
+        <v>84.78271069158646</v>
       </c>
       <c r="M32" t="n">
-        <v>94.33710152384405</v>
+        <v>94.3371015238441</v>
       </c>
       <c r="N32" t="n">
-        <v>95.86357445290301</v>
+        <v>95.86357445290305</v>
       </c>
       <c r="O32" t="n">
-        <v>90.52125498494703</v>
+        <v>90.52125498494708</v>
       </c>
       <c r="P32" t="n">
-        <v>77.2577968464014</v>
+        <v>77.25779684640145</v>
       </c>
       <c r="Q32" t="n">
-        <v>58.01738795175167</v>
+        <v>58.01738795175169</v>
       </c>
       <c r="R32" t="n">
-        <v>33.74828161196626</v>
+        <v>33.74828161196628</v>
       </c>
       <c r="S32" t="n">
-        <v>12.24267553750313</v>
+        <v>12.24267553750314</v>
       </c>
       <c r="T32" t="n">
         <v>2.351829387401863</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04298032004389466</v>
+        <v>0.04298032004389468</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.287456232463383</v>
+        <v>0.2874562324633831</v>
       </c>
       <c r="H33" t="n">
-        <v>2.776222034580568</v>
+        <v>2.776222034580569</v>
       </c>
       <c r="I33" t="n">
-        <v>9.897067652796302</v>
+        <v>9.897067652796306</v>
       </c>
       <c r="J33" t="n">
-        <v>27.15831010304269</v>
+        <v>27.15831010304271</v>
       </c>
       <c r="K33" t="n">
-        <v>46.41787767808935</v>
+        <v>46.41787767808938</v>
       </c>
       <c r="L33" t="n">
-        <v>62.41456486008674</v>
+        <v>62.41456486008677</v>
       </c>
       <c r="M33" t="n">
-        <v>72.83485328688435</v>
+        <v>72.8348532868844</v>
       </c>
       <c r="N33" t="n">
-        <v>74.7625751265182</v>
+        <v>74.76257512651823</v>
       </c>
       <c r="O33" t="n">
-        <v>68.39315018614533</v>
+        <v>68.39315018614538</v>
       </c>
       <c r="P33" t="n">
-        <v>54.89153267101215</v>
+        <v>54.89153267101217</v>
       </c>
       <c r="Q33" t="n">
-        <v>36.69353591936096</v>
+        <v>36.69353591936098</v>
       </c>
       <c r="R33" t="n">
-        <v>17.84750187171777</v>
+        <v>17.84750187171778</v>
       </c>
       <c r="S33" t="n">
-        <v>5.339373440712396</v>
+        <v>5.339373440712398</v>
       </c>
       <c r="T33" t="n">
-        <v>1.158650340499337</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U33" t="n">
         <v>0.01891159424101205</v>
@@ -33567,34 +33567,34 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2409936490166124</v>
+        <v>0.2409936490166125</v>
       </c>
       <c r="H34" t="n">
-        <v>2.142652624893155</v>
+        <v>2.142652624893156</v>
       </c>
       <c r="I34" t="n">
-        <v>7.247336281335946</v>
+        <v>7.24733628133595</v>
       </c>
       <c r="J34" t="n">
-        <v>17.0382509854745</v>
+        <v>17.03825098547451</v>
       </c>
       <c r="K34" t="n">
-        <v>27.99908031302096</v>
+        <v>27.99908031302098</v>
       </c>
       <c r="L34" t="n">
-        <v>35.82918305470618</v>
+        <v>35.8291830547062</v>
       </c>
       <c r="M34" t="n">
-        <v>37.77684990903134</v>
+        <v>37.77684990903136</v>
       </c>
       <c r="N34" t="n">
-        <v>36.87860085360582</v>
+        <v>36.87860085360583</v>
       </c>
       <c r="O34" t="n">
-        <v>34.06335686282083</v>
+        <v>34.06335686282085</v>
       </c>
       <c r="P34" t="n">
-        <v>29.14708642288191</v>
+        <v>29.14708642288192</v>
       </c>
       <c r="Q34" t="n">
         <v>20.17993182810925</v>
@@ -33603,13 +33603,13 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S34" t="n">
-        <v>4.199862046953144</v>
+        <v>4.199862046953146</v>
       </c>
       <c r="T34" t="n">
         <v>1.029700136707344</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01314510812817887</v>
+        <v>0.01314510812817888</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5372540005486833</v>
+        <v>0.5372540005486836</v>
       </c>
       <c r="H35" t="n">
-        <v>5.502152533119204</v>
+        <v>5.502152533119207</v>
       </c>
       <c r="I35" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J35" t="n">
-        <v>45.59876172906885</v>
+        <v>45.59876172906888</v>
       </c>
       <c r="K35" t="n">
-        <v>68.34072357229464</v>
+        <v>68.34072357229466</v>
       </c>
       <c r="L35" t="n">
-        <v>84.78271069158642</v>
+        <v>84.78271069158646</v>
       </c>
       <c r="M35" t="n">
-        <v>94.33710152384405</v>
+        <v>94.3371015238441</v>
       </c>
       <c r="N35" t="n">
-        <v>95.86357445290301</v>
+        <v>95.86357445290305</v>
       </c>
       <c r="O35" t="n">
-        <v>90.52125498494703</v>
+        <v>90.52125498494708</v>
       </c>
       <c r="P35" t="n">
-        <v>77.2577968464014</v>
+        <v>77.25779684640145</v>
       </c>
       <c r="Q35" t="n">
-        <v>58.01738795175167</v>
+        <v>58.01738795175169</v>
       </c>
       <c r="R35" t="n">
-        <v>33.74828161196626</v>
+        <v>33.74828161196628</v>
       </c>
       <c r="S35" t="n">
-        <v>12.24267553750313</v>
+        <v>12.24267553750314</v>
       </c>
       <c r="T35" t="n">
         <v>2.351829387401863</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04298032004389466</v>
+        <v>0.04298032004389468</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.287456232463383</v>
+        <v>0.2874562324633831</v>
       </c>
       <c r="H36" t="n">
-        <v>2.776222034580568</v>
+        <v>2.776222034580569</v>
       </c>
       <c r="I36" t="n">
-        <v>9.897067652796302</v>
+        <v>9.897067652796306</v>
       </c>
       <c r="J36" t="n">
-        <v>27.15831010304269</v>
+        <v>27.15831010304271</v>
       </c>
       <c r="K36" t="n">
-        <v>46.41787767808935</v>
+        <v>46.41787767808938</v>
       </c>
       <c r="L36" t="n">
-        <v>62.41456486008674</v>
+        <v>62.41456486008677</v>
       </c>
       <c r="M36" t="n">
-        <v>72.83485328688435</v>
+        <v>72.8348532868844</v>
       </c>
       <c r="N36" t="n">
-        <v>74.7625751265182</v>
+        <v>74.76257512651823</v>
       </c>
       <c r="O36" t="n">
-        <v>68.39315018614533</v>
+        <v>68.39315018614538</v>
       </c>
       <c r="P36" t="n">
-        <v>54.89153267101215</v>
+        <v>54.89153267101217</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.69353591936096</v>
+        <v>36.69353591936098</v>
       </c>
       <c r="R36" t="n">
-        <v>17.84750187171777</v>
+        <v>17.84750187171778</v>
       </c>
       <c r="S36" t="n">
-        <v>5.339373440712396</v>
+        <v>5.339373440712398</v>
       </c>
       <c r="T36" t="n">
-        <v>1.158650340499337</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U36" t="n">
         <v>0.01891159424101205</v>
@@ -33804,34 +33804,34 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2409936490166124</v>
+        <v>0.2409936490166125</v>
       </c>
       <c r="H37" t="n">
-        <v>2.142652624893155</v>
+        <v>2.142652624893156</v>
       </c>
       <c r="I37" t="n">
-        <v>7.247336281335946</v>
+        <v>7.24733628133595</v>
       </c>
       <c r="J37" t="n">
-        <v>17.0382509854745</v>
+        <v>17.03825098547451</v>
       </c>
       <c r="K37" t="n">
-        <v>27.99908031302096</v>
+        <v>27.99908031302098</v>
       </c>
       <c r="L37" t="n">
-        <v>35.82918305470618</v>
+        <v>35.8291830547062</v>
       </c>
       <c r="M37" t="n">
-        <v>37.77684990903134</v>
+        <v>37.77684990903136</v>
       </c>
       <c r="N37" t="n">
-        <v>36.87860085360582</v>
+        <v>36.87860085360583</v>
       </c>
       <c r="O37" t="n">
-        <v>34.06335686282083</v>
+        <v>34.06335686282085</v>
       </c>
       <c r="P37" t="n">
-        <v>29.14708642288191</v>
+        <v>29.14708642288192</v>
       </c>
       <c r="Q37" t="n">
         <v>20.17993182810925</v>
@@ -33840,13 +33840,13 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S37" t="n">
-        <v>4.199862046953144</v>
+        <v>4.199862046953146</v>
       </c>
       <c r="T37" t="n">
         <v>1.029700136707344</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01314510812817887</v>
+        <v>0.01314510812817888</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5372540005486833</v>
+        <v>0.5372540005486836</v>
       </c>
       <c r="H38" t="n">
-        <v>5.502152533119204</v>
+        <v>5.502152533119207</v>
       </c>
       <c r="I38" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J38" t="n">
-        <v>45.59876172906885</v>
+        <v>45.59876172906888</v>
       </c>
       <c r="K38" t="n">
-        <v>68.34072357229464</v>
+        <v>68.34072357229466</v>
       </c>
       <c r="L38" t="n">
-        <v>84.78271069158642</v>
+        <v>84.78271069158646</v>
       </c>
       <c r="M38" t="n">
-        <v>94.33710152384405</v>
+        <v>94.3371015238441</v>
       </c>
       <c r="N38" t="n">
-        <v>95.86357445290301</v>
+        <v>95.86357445290305</v>
       </c>
       <c r="O38" t="n">
-        <v>90.52125498494703</v>
+        <v>90.52125498494708</v>
       </c>
       <c r="P38" t="n">
-        <v>77.2577968464014</v>
+        <v>77.25779684640145</v>
       </c>
       <c r="Q38" t="n">
-        <v>58.01738795175167</v>
+        <v>58.01738795175169</v>
       </c>
       <c r="R38" t="n">
-        <v>33.74828161196626</v>
+        <v>33.74828161196628</v>
       </c>
       <c r="S38" t="n">
-        <v>12.24267553750313</v>
+        <v>12.24267553750314</v>
       </c>
       <c r="T38" t="n">
         <v>2.351829387401863</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04298032004389466</v>
+        <v>0.04298032004389468</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.287456232463383</v>
+        <v>0.2874562324633831</v>
       </c>
       <c r="H39" t="n">
-        <v>2.776222034580568</v>
+        <v>2.776222034580569</v>
       </c>
       <c r="I39" t="n">
-        <v>9.897067652796302</v>
+        <v>9.897067652796306</v>
       </c>
       <c r="J39" t="n">
-        <v>27.15831010304269</v>
+        <v>27.15831010304271</v>
       </c>
       <c r="K39" t="n">
-        <v>46.41787767808935</v>
+        <v>46.41787767808938</v>
       </c>
       <c r="L39" t="n">
-        <v>62.41456486008674</v>
+        <v>62.41456486008677</v>
       </c>
       <c r="M39" t="n">
-        <v>72.83485328688435</v>
+        <v>72.8348532868844</v>
       </c>
       <c r="N39" t="n">
-        <v>74.7625751265182</v>
+        <v>74.76257512651823</v>
       </c>
       <c r="O39" t="n">
-        <v>68.39315018614533</v>
+        <v>68.39315018614538</v>
       </c>
       <c r="P39" t="n">
-        <v>54.89153267101215</v>
+        <v>54.89153267101217</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.69353591936096</v>
+        <v>36.69353591936098</v>
       </c>
       <c r="R39" t="n">
-        <v>17.84750187171777</v>
+        <v>17.84750187171778</v>
       </c>
       <c r="S39" t="n">
-        <v>5.339373440712396</v>
+        <v>5.339373440712398</v>
       </c>
       <c r="T39" t="n">
-        <v>1.158650340499337</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U39" t="n">
         <v>0.01891159424101205</v>
@@ -34041,34 +34041,34 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2409936490166124</v>
+        <v>0.2409936490166125</v>
       </c>
       <c r="H40" t="n">
-        <v>2.142652624893155</v>
+        <v>2.142652624893156</v>
       </c>
       <c r="I40" t="n">
-        <v>7.247336281335946</v>
+        <v>7.24733628133595</v>
       </c>
       <c r="J40" t="n">
-        <v>17.0382509854745</v>
+        <v>17.03825098547451</v>
       </c>
       <c r="K40" t="n">
-        <v>27.99908031302096</v>
+        <v>27.99908031302098</v>
       </c>
       <c r="L40" t="n">
-        <v>35.82918305470618</v>
+        <v>35.8291830547062</v>
       </c>
       <c r="M40" t="n">
-        <v>37.77684990903134</v>
+        <v>37.77684990903136</v>
       </c>
       <c r="N40" t="n">
-        <v>36.87860085360582</v>
+        <v>36.87860085360583</v>
       </c>
       <c r="O40" t="n">
-        <v>34.06335686282083</v>
+        <v>34.06335686282085</v>
       </c>
       <c r="P40" t="n">
-        <v>29.14708642288191</v>
+        <v>29.14708642288192</v>
       </c>
       <c r="Q40" t="n">
         <v>20.17993182810925</v>
@@ -34077,13 +34077,13 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S40" t="n">
-        <v>4.199862046953144</v>
+        <v>4.199862046953146</v>
       </c>
       <c r="T40" t="n">
         <v>1.029700136707344</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01314510812817887</v>
+        <v>0.01314510812817888</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5372540005486833</v>
+        <v>0.5372540005486836</v>
       </c>
       <c r="H41" t="n">
-        <v>5.502152533119204</v>
+        <v>5.502152533119207</v>
       </c>
       <c r="I41" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J41" t="n">
-        <v>45.59876172906885</v>
+        <v>45.59876172906888</v>
       </c>
       <c r="K41" t="n">
-        <v>68.34072357229464</v>
+        <v>68.34072357229466</v>
       </c>
       <c r="L41" t="n">
-        <v>84.78271069158642</v>
+        <v>84.78271069158646</v>
       </c>
       <c r="M41" t="n">
-        <v>94.33710152384405</v>
+        <v>94.3371015238441</v>
       </c>
       <c r="N41" t="n">
-        <v>95.86357445290301</v>
+        <v>95.86357445290305</v>
       </c>
       <c r="O41" t="n">
-        <v>90.52125498494703</v>
+        <v>90.52125498494708</v>
       </c>
       <c r="P41" t="n">
-        <v>77.2577968464014</v>
+        <v>77.25779684640145</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.01738795175167</v>
+        <v>58.01738795175169</v>
       </c>
       <c r="R41" t="n">
-        <v>33.74828161196626</v>
+        <v>33.74828161196628</v>
       </c>
       <c r="S41" t="n">
-        <v>12.24267553750313</v>
+        <v>12.24267553750314</v>
       </c>
       <c r="T41" t="n">
         <v>2.351829387401863</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04298032004389466</v>
+        <v>0.04298032004389468</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.287456232463383</v>
+        <v>0.2874562324633831</v>
       </c>
       <c r="H42" t="n">
-        <v>2.776222034580568</v>
+        <v>2.776222034580569</v>
       </c>
       <c r="I42" t="n">
-        <v>9.897067652796302</v>
+        <v>9.897067652796306</v>
       </c>
       <c r="J42" t="n">
-        <v>27.15831010304269</v>
+        <v>27.15831010304271</v>
       </c>
       <c r="K42" t="n">
-        <v>46.41787767808935</v>
+        <v>46.41787767808938</v>
       </c>
       <c r="L42" t="n">
-        <v>62.41456486008674</v>
+        <v>62.41456486008677</v>
       </c>
       <c r="M42" t="n">
-        <v>72.83485328688435</v>
+        <v>72.8348532868844</v>
       </c>
       <c r="N42" t="n">
-        <v>74.7625751265182</v>
+        <v>74.76257512651823</v>
       </c>
       <c r="O42" t="n">
-        <v>68.39315018614533</v>
+        <v>68.39315018614538</v>
       </c>
       <c r="P42" t="n">
-        <v>54.89153267101215</v>
+        <v>54.89153267101217</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.69353591936096</v>
+        <v>36.69353591936098</v>
       </c>
       <c r="R42" t="n">
-        <v>17.84750187171777</v>
+        <v>17.84750187171778</v>
       </c>
       <c r="S42" t="n">
-        <v>5.339373440712396</v>
+        <v>5.339373440712398</v>
       </c>
       <c r="T42" t="n">
-        <v>1.158650340499337</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U42" t="n">
         <v>0.01891159424101205</v>
@@ -34278,34 +34278,34 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2409936490166124</v>
+        <v>0.2409936490166125</v>
       </c>
       <c r="H43" t="n">
-        <v>2.142652624893155</v>
+        <v>2.142652624893156</v>
       </c>
       <c r="I43" t="n">
-        <v>7.247336281335946</v>
+        <v>7.24733628133595</v>
       </c>
       <c r="J43" t="n">
-        <v>17.0382509854745</v>
+        <v>17.03825098547451</v>
       </c>
       <c r="K43" t="n">
-        <v>27.99908031302096</v>
+        <v>27.99908031302098</v>
       </c>
       <c r="L43" t="n">
-        <v>35.82918305470618</v>
+        <v>35.8291830547062</v>
       </c>
       <c r="M43" t="n">
-        <v>37.77684990903134</v>
+        <v>37.77684990903136</v>
       </c>
       <c r="N43" t="n">
-        <v>36.87860085360582</v>
+        <v>36.87860085360583</v>
       </c>
       <c r="O43" t="n">
-        <v>34.06335686282083</v>
+        <v>34.06335686282085</v>
       </c>
       <c r="P43" t="n">
-        <v>29.14708642288191</v>
+        <v>29.14708642288192</v>
       </c>
       <c r="Q43" t="n">
         <v>20.17993182810925</v>
@@ -34314,13 +34314,13 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S43" t="n">
-        <v>4.199862046953144</v>
+        <v>4.199862046953146</v>
       </c>
       <c r="T43" t="n">
         <v>1.029700136707344</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01314510812817887</v>
+        <v>0.01314510812817888</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5372540005486833</v>
+        <v>0.5372540005486836</v>
       </c>
       <c r="H44" t="n">
-        <v>5.502152533119204</v>
+        <v>5.502152533119207</v>
       </c>
       <c r="I44" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J44" t="n">
-        <v>45.59876172906885</v>
+        <v>45.59876172906888</v>
       </c>
       <c r="K44" t="n">
-        <v>68.34072357229464</v>
+        <v>68.34072357229466</v>
       </c>
       <c r="L44" t="n">
-        <v>84.78271069158642</v>
+        <v>84.78271069158646</v>
       </c>
       <c r="M44" t="n">
-        <v>94.33710152384405</v>
+        <v>94.3371015238441</v>
       </c>
       <c r="N44" t="n">
-        <v>95.86357445290301</v>
+        <v>95.86357445290305</v>
       </c>
       <c r="O44" t="n">
-        <v>90.52125498494703</v>
+        <v>90.52125498494708</v>
       </c>
       <c r="P44" t="n">
-        <v>77.2577968464014</v>
+        <v>77.25779684640145</v>
       </c>
       <c r="Q44" t="n">
-        <v>58.01738795175167</v>
+        <v>58.01738795175169</v>
       </c>
       <c r="R44" t="n">
-        <v>33.74828161196626</v>
+        <v>33.74828161196628</v>
       </c>
       <c r="S44" t="n">
-        <v>12.24267553750313</v>
+        <v>12.24267553750314</v>
       </c>
       <c r="T44" t="n">
         <v>2.351829387401863</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04298032004389466</v>
+        <v>0.04298032004389468</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.287456232463383</v>
+        <v>0.2874562324633831</v>
       </c>
       <c r="H45" t="n">
-        <v>2.776222034580568</v>
+        <v>2.776222034580569</v>
       </c>
       <c r="I45" t="n">
-        <v>9.897067652796302</v>
+        <v>9.897067652796306</v>
       </c>
       <c r="J45" t="n">
-        <v>27.15831010304269</v>
+        <v>27.15831010304271</v>
       </c>
       <c r="K45" t="n">
-        <v>46.41787767808935</v>
+        <v>46.41787767808938</v>
       </c>
       <c r="L45" t="n">
-        <v>62.41456486008674</v>
+        <v>62.41456486008677</v>
       </c>
       <c r="M45" t="n">
-        <v>72.83485328688435</v>
+        <v>72.8348532868844</v>
       </c>
       <c r="N45" t="n">
-        <v>74.7625751265182</v>
+        <v>74.76257512651823</v>
       </c>
       <c r="O45" t="n">
-        <v>68.39315018614533</v>
+        <v>68.39315018614538</v>
       </c>
       <c r="P45" t="n">
-        <v>54.89153267101215</v>
+        <v>54.89153267101217</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.69353591936096</v>
+        <v>36.69353591936098</v>
       </c>
       <c r="R45" t="n">
-        <v>17.84750187171777</v>
+        <v>17.84750187171778</v>
       </c>
       <c r="S45" t="n">
-        <v>5.339373440712396</v>
+        <v>5.339373440712398</v>
       </c>
       <c r="T45" t="n">
-        <v>1.158650340499337</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U45" t="n">
         <v>0.01891159424101205</v>
@@ -34515,34 +34515,34 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2409936490166124</v>
+        <v>0.2409936490166125</v>
       </c>
       <c r="H46" t="n">
-        <v>2.142652624893155</v>
+        <v>2.142652624893156</v>
       </c>
       <c r="I46" t="n">
-        <v>7.247336281335946</v>
+        <v>7.24733628133595</v>
       </c>
       <c r="J46" t="n">
-        <v>17.0382509854745</v>
+        <v>17.03825098547451</v>
       </c>
       <c r="K46" t="n">
-        <v>27.99908031302096</v>
+        <v>27.99908031302098</v>
       </c>
       <c r="L46" t="n">
-        <v>35.82918305470618</v>
+        <v>35.8291830547062</v>
       </c>
       <c r="M46" t="n">
-        <v>37.77684990903134</v>
+        <v>37.77684990903136</v>
       </c>
       <c r="N46" t="n">
-        <v>36.87860085360582</v>
+        <v>36.87860085360583</v>
       </c>
       <c r="O46" t="n">
-        <v>34.06335686282083</v>
+        <v>34.06335686282085</v>
       </c>
       <c r="P46" t="n">
-        <v>29.14708642288191</v>
+        <v>29.14708642288192</v>
       </c>
       <c r="Q46" t="n">
         <v>20.17993182810925</v>
@@ -34551,13 +34551,13 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S46" t="n">
-        <v>4.199862046953144</v>
+        <v>4.199862046953146</v>
       </c>
       <c r="T46" t="n">
         <v>1.029700136707344</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01314510812817887</v>
+        <v>0.01314510812817888</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>10.00967878293136</v>
+        <v>9.605247316954339</v>
       </c>
       <c r="K8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="M8" t="n">
-        <v>9.605247316954333</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35191,7 +35191,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>9.605247316954339</v>
       </c>
       <c r="L9" t="n">
         <v>10.00967878293136</v>
@@ -35264,7 +35264,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="O9" t="n">
-        <v>9.605247316954333</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35331,19 +35331,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>9.605247316954339</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="O10" t="n">
-        <v>10.00967878293136</v>
+        <v>9.605247316954337</v>
       </c>
       <c r="P10" t="n">
         <v>10.00967878293136</v>
@@ -35413,10 +35413,10 @@
         <v>310.9067559407621</v>
       </c>
       <c r="L11" t="n">
-        <v>436.1820774440574</v>
+        <v>365.8023873164366</v>
       </c>
       <c r="M11" t="n">
-        <v>491.5483805673672</v>
+        <v>491.5483805673673</v>
       </c>
       <c r="N11" t="n">
         <v>478.0164620162523</v>
@@ -35425,10 +35425,10 @@
         <v>398.6066938463955</v>
       </c>
       <c r="P11" t="n">
-        <v>307.7193084181723</v>
+        <v>307.7193084181724</v>
       </c>
       <c r="Q11" t="n">
-        <v>83.02381265901691</v>
+        <v>153.4035027866375</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>88.02108437890749</v>
+        <v>88.0210843789075</v>
       </c>
       <c r="K12" t="n">
         <v>278.2265166277749</v>
       </c>
       <c r="L12" t="n">
-        <v>325.1823004138129</v>
+        <v>431.9315801834359</v>
       </c>
       <c r="M12" t="n">
         <v>562.7675336002444</v>
       </c>
       <c r="N12" t="n">
-        <v>591.1925207054294</v>
+        <v>124.4043150570192</v>
       </c>
       <c r="O12" t="n">
         <v>464.5547166347826</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>360.0389258787872</v>
       </c>
       <c r="Q12" t="n">
         <v>196.0588185310723</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>46.13811767707023</v>
+        <v>46.13811767707019</v>
       </c>
       <c r="K13" t="n">
         <v>150.499237189074</v>
       </c>
       <c r="L13" t="n">
-        <v>226.0090284717856</v>
+        <v>226.0090284717855</v>
       </c>
       <c r="M13" t="n">
         <v>245.5187425254463</v>
@@ -35586,7 +35586,7 @@
         <v>181.3081483327676</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.58449678682612</v>
+        <v>70.58449678682609</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>118.3245640248322</v>
       </c>
       <c r="K14" t="n">
         <v>310.9067559407621</v>
       </c>
       <c r="L14" t="n">
-        <v>436.1820774440574</v>
+        <v>247.4778232916044</v>
       </c>
       <c r="M14" t="n">
-        <v>491.5483805673672</v>
+        <v>491.5483805673673</v>
       </c>
       <c r="N14" t="n">
         <v>478.0164620162523</v>
@@ -35662,10 +35662,10 @@
         <v>398.6066938463955</v>
       </c>
       <c r="P14" t="n">
-        <v>307.7193084181723</v>
+        <v>307.7193084181724</v>
       </c>
       <c r="Q14" t="n">
-        <v>83.02381265901691</v>
+        <v>153.4035027866375</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>88.0210843789075</v>
       </c>
       <c r="K15" t="n">
-        <v>278.2265166277749</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>431.9315801834359</v>
       </c>
       <c r="M15" t="n">
-        <v>380.059230861814</v>
+        <v>562.7675336002444</v>
       </c>
       <c r="N15" t="n">
         <v>591.1925207054294</v>
       </c>
       <c r="O15" t="n">
-        <v>464.5547166347826</v>
+        <v>275.9930276141475</v>
       </c>
       <c r="P15" t="n">
         <v>360.0389258787872</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>196.0588185310723</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>46.13811767707021</v>
+        <v>46.13811767707028</v>
       </c>
       <c r="K16" t="n">
-        <v>150.499237189074</v>
+        <v>150.4992371890741</v>
       </c>
       <c r="L16" t="n">
-        <v>226.0090284717855</v>
+        <v>226.0090284717856</v>
       </c>
       <c r="M16" t="n">
         <v>245.5187425254463</v>
@@ -35820,10 +35820,10 @@
         <v>222.0781185379105</v>
       </c>
       <c r="P16" t="n">
-        <v>181.3081483327676</v>
+        <v>181.3081483327677</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.58449678682611</v>
+        <v>70.58449678682618</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>118.3245640248321</v>
+        <v>118.3245640248322</v>
       </c>
       <c r="K17" t="n">
-        <v>122.2025017883093</v>
+        <v>122.2025017883091</v>
       </c>
       <c r="L17" t="n">
         <v>436.1820774440574</v>
       </c>
       <c r="M17" t="n">
-        <v>491.5483805673672</v>
+        <v>491.5483805673673</v>
       </c>
       <c r="N17" t="n">
         <v>478.0164620162523</v>
@@ -35899,7 +35899,7 @@
         <v>398.6066938463955</v>
       </c>
       <c r="P17" t="n">
-        <v>307.7193084181723</v>
+        <v>307.7193084181724</v>
       </c>
       <c r="Q17" t="n">
         <v>153.4035027866375</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>88.02108437890749</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>278.2265166277749</v>
@@ -35969,10 +35969,10 @@
         <v>431.9315801834359</v>
       </c>
       <c r="M18" t="n">
-        <v>562.7675336002444</v>
+        <v>184.0004123307404</v>
       </c>
       <c r="N18" t="n">
-        <v>124.4043150570178</v>
+        <v>591.1925207054294</v>
       </c>
       <c r="O18" t="n">
         <v>464.5547166347826</v>
@@ -36057,7 +36057,7 @@
         <v>133.5215856463458</v>
       </c>
       <c r="P19" t="n">
-        <v>92.75161544120292</v>
+        <v>92.75161544120293</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>118.3245640248321</v>
+        <v>118.3245640248322</v>
       </c>
       <c r="K20" t="n">
         <v>310.9067559407621</v>
@@ -36127,16 +36127,16 @@
         <v>436.1820774440574</v>
       </c>
       <c r="M20" t="n">
-        <v>491.5483805673672</v>
+        <v>491.5483805673673</v>
       </c>
       <c r="N20" t="n">
-        <v>289.3122078637995</v>
+        <v>289.3122078637993</v>
       </c>
       <c r="O20" t="n">
         <v>398.6066938463955</v>
       </c>
       <c r="P20" t="n">
-        <v>307.7193084181723</v>
+        <v>307.7193084181724</v>
       </c>
       <c r="Q20" t="n">
         <v>153.4035027866375</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>88.02108437890749</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>278.2265166277749</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>431.9315801834359</v>
@@ -36209,7 +36209,7 @@
         <v>562.7675336002444</v>
       </c>
       <c r="N21" t="n">
-        <v>320.4631335880914</v>
+        <v>591.1925207054294</v>
       </c>
       <c r="O21" t="n">
         <v>464.5547166347826</v>
@@ -36218,7 +36218,7 @@
         <v>360.0389258787872</v>
       </c>
       <c r="Q21" t="n">
-        <v>-1.378022275413528e-12</v>
+        <v>95.51821388934312</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36294,7 +36294,7 @@
         <v>133.5215856463458</v>
       </c>
       <c r="P22" t="n">
-        <v>92.75161544120292</v>
+        <v>92.75161544120293</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>118.3245640248322</v>
       </c>
       <c r="K23" t="n">
         <v>310.9067559407621</v>
       </c>
       <c r="L23" t="n">
-        <v>436.1820774440574</v>
+        <v>247.4778232916044</v>
       </c>
       <c r="M23" t="n">
-        <v>491.5483805673672</v>
+        <v>491.5483805673673</v>
       </c>
       <c r="N23" t="n">
         <v>478.0164620162523</v>
@@ -36373,10 +36373,10 @@
         <v>398.6066938463955</v>
       </c>
       <c r="P23" t="n">
-        <v>307.7193084181723</v>
+        <v>307.7193084181724</v>
       </c>
       <c r="Q23" t="n">
-        <v>83.02381265901691</v>
+        <v>153.4035027866375</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>88.0210843789075</v>
       </c>
       <c r="K24" t="n">
-        <v>95.51821388934452</v>
+        <v>243.3698911628002</v>
       </c>
       <c r="L24" t="n">
-        <v>431.9315801834359</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>562.7675336002444</v>
@@ -36455,7 +36455,7 @@
         <v>360.0389258787872</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>196.0588185310723</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36531,7 +36531,7 @@
         <v>133.5215856463458</v>
       </c>
       <c r="P25" t="n">
-        <v>92.75161544120292</v>
+        <v>92.75161544120293</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36601,22 +36601,22 @@
         <v>538.7121210894744</v>
       </c>
       <c r="M26" t="n">
-        <v>594.0784242127843</v>
+        <v>594.0784242127844</v>
       </c>
       <c r="N26" t="n">
-        <v>580.5465056616692</v>
+        <v>479.402626633464</v>
       </c>
       <c r="O26" t="n">
-        <v>501.1367374918125</v>
+        <v>501.1367374918126</v>
       </c>
       <c r="P26" t="n">
         <v>410.2493520635894</v>
       </c>
       <c r="Q26" t="n">
-        <v>154.789667403849</v>
+        <v>255.9335464320546</v>
       </c>
       <c r="R26" t="n">
-        <v>46.54642161827813</v>
+        <v>46.54642161827816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36686,13 +36686,13 @@
         <v>591.1925207054294</v>
       </c>
       <c r="O27" t="n">
-        <v>281.8464138963514</v>
+        <v>85.78759536527893</v>
       </c>
       <c r="P27" t="n">
         <v>360.0389258787872</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>196.0588185310723</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.11162843092255</v>
+        <v>60.11162843092257</v>
       </c>
       <c r="K28" t="n">
         <v>164.4727479429263</v>
@@ -36759,19 +36759,19 @@
         <v>239.9825392256379</v>
       </c>
       <c r="M28" t="n">
-        <v>259.4922532792986</v>
+        <v>259.4922532792987</v>
       </c>
       <c r="N28" t="n">
         <v>259.0271715188212</v>
       </c>
       <c r="O28" t="n">
-        <v>236.0516292917628</v>
+        <v>236.0516292917629</v>
       </c>
       <c r="P28" t="n">
         <v>195.28165908662</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.55800754067845</v>
+        <v>84.55800754067846</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>220.8546076702492</v>
+        <v>220.8546076702493</v>
       </c>
       <c r="K29" t="n">
-        <v>413.4367995861791</v>
+        <v>413.4367995861792</v>
       </c>
       <c r="L29" t="n">
-        <v>437.5682420612688</v>
+        <v>437.5682420612674</v>
       </c>
       <c r="M29" t="n">
-        <v>594.0784242127843</v>
+        <v>594.0784242127844</v>
       </c>
       <c r="N29" t="n">
-        <v>580.5465056616692</v>
+        <v>580.5465056616694</v>
       </c>
       <c r="O29" t="n">
         <v>501.1367374918126</v>
       </c>
       <c r="P29" t="n">
-        <v>410.2493520635894</v>
+        <v>410.2493520635895</v>
       </c>
       <c r="Q29" t="n">
         <v>255.9335464320546</v>
       </c>
       <c r="R29" t="n">
-        <v>46.54642161827814</v>
+        <v>46.54642161827819</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>88.02108437890749</v>
+        <v>88.0210843789075</v>
       </c>
       <c r="K30" t="n">
-        <v>278.2265166277749</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>431.9315801834359</v>
+        <v>243.3698911627992</v>
       </c>
       <c r="M30" t="n">
         <v>562.7675336002444</v>
       </c>
       <c r="N30" t="n">
-        <v>124.4043150570183</v>
+        <v>591.1925207054294</v>
       </c>
       <c r="O30" t="n">
         <v>464.5547166347826</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.11162843092256</v>
+        <v>60.1116284309226</v>
       </c>
       <c r="K31" t="n">
-        <v>164.4727479429263</v>
+        <v>164.4727479429264</v>
       </c>
       <c r="L31" t="n">
         <v>239.9825392256379</v>
@@ -36999,16 +36999,16 @@
         <v>259.4922532792987</v>
       </c>
       <c r="N31" t="n">
-        <v>259.0271715188212</v>
+        <v>259.0271715188213</v>
       </c>
       <c r="O31" t="n">
-        <v>236.0516292917628</v>
+        <v>236.0516292917629</v>
       </c>
       <c r="P31" t="n">
         <v>195.28165908662</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.55800754067846</v>
+        <v>84.55800754067849</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>223.4443117649692</v>
+        <v>223.4443117649694</v>
       </c>
       <c r="K32" t="n">
-        <v>416.0265036808991</v>
+        <v>416.0265036808993</v>
       </c>
       <c r="L32" t="n">
-        <v>541.3018251841944</v>
+        <v>436.1820774440574</v>
       </c>
       <c r="M32" t="n">
-        <v>596.6681283075043</v>
+        <v>596.6681283075045</v>
       </c>
       <c r="N32" t="n">
-        <v>583.1362097563892</v>
+        <v>583.1362097563895</v>
       </c>
       <c r="O32" t="n">
-        <v>503.7264415865325</v>
+        <v>503.7264415865327</v>
       </c>
       <c r="P32" t="n">
-        <v>307.7193084181723</v>
+        <v>412.8390561583096</v>
       </c>
       <c r="Q32" t="n">
-        <v>248.6936244334758</v>
+        <v>199.5574987204755</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>49.13612571299828</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>88.02108437890749</v>
+        <v>88.0210843789075</v>
       </c>
       <c r="K33" t="n">
         <v>278.2265166277749</v>
@@ -37154,10 +37154,10 @@
         <v>431.9315801834359</v>
       </c>
       <c r="M33" t="n">
-        <v>562.7675336002444</v>
+        <v>95.97932795183321</v>
       </c>
       <c r="N33" t="n">
-        <v>124.404315057018</v>
+        <v>591.1925207054294</v>
       </c>
       <c r="O33" t="n">
         <v>464.5547166347826</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>62.70133252564254</v>
+        <v>62.70133252564269</v>
       </c>
       <c r="K34" t="n">
-        <v>104.0682500364216</v>
+        <v>167.0624520376465</v>
       </c>
       <c r="L34" t="n">
-        <v>242.5722433203579</v>
+        <v>242.572243320358</v>
       </c>
       <c r="M34" t="n">
-        <v>262.0819573740186</v>
+        <v>262.0819573740188</v>
       </c>
       <c r="N34" t="n">
-        <v>261.6168756135412</v>
+        <v>261.6168756135414</v>
       </c>
       <c r="O34" t="n">
-        <v>238.6413333864828</v>
+        <v>238.641333386483</v>
       </c>
       <c r="P34" t="n">
-        <v>197.87136318134</v>
+        <v>197.8713631813401</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.14771163539844</v>
+        <v>24.15350963417036</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>118.3245640248321</v>
+        <v>118.3245640248322</v>
       </c>
       <c r="K35" t="n">
         <v>310.9067559407621</v>
@@ -37312,7 +37312,7 @@
         <v>436.1820774440574</v>
       </c>
       <c r="M35" t="n">
-        <v>491.5483805673672</v>
+        <v>491.5483805673673</v>
       </c>
       <c r="N35" t="n">
         <v>478.0164620162523</v>
@@ -37321,7 +37321,7 @@
         <v>398.6066938463955</v>
       </c>
       <c r="P35" t="n">
-        <v>307.7193084181723</v>
+        <v>307.7193084181724</v>
       </c>
       <c r="Q35" t="n">
         <v>153.4035027866375</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>88.02108437890749</v>
+        <v>53.16445891393191</v>
       </c>
       <c r="K36" t="n">
         <v>278.2265166277749</v>
       </c>
       <c r="L36" t="n">
-        <v>431.9315801834359</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>562.7675336002444</v>
       </c>
       <c r="N36" t="n">
-        <v>124.404315057018</v>
+        <v>591.1925207054294</v>
       </c>
       <c r="O36" t="n">
         <v>464.5547166347826</v>
@@ -37479,7 +37479,7 @@
         <v>133.5215856463458</v>
       </c>
       <c r="P37" t="n">
-        <v>92.75161544120292</v>
+        <v>92.75161544120293</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>118.3245640248321</v>
+        <v>118.3245640248322</v>
       </c>
       <c r="K38" t="n">
         <v>310.9067559407621</v>
@@ -37549,19 +37549,19 @@
         <v>436.1820774440574</v>
       </c>
       <c r="M38" t="n">
-        <v>491.5483805673672</v>
+        <v>491.5483805673673</v>
       </c>
       <c r="N38" t="n">
-        <v>478.0164620162515</v>
+        <v>478.0164620162523</v>
       </c>
       <c r="O38" t="n">
         <v>398.6066938463955</v>
       </c>
       <c r="P38" t="n">
-        <v>307.7193084181723</v>
+        <v>307.7193084181724</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.4035027866375</v>
+        <v>153.4035027866373</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>88.02108437890749</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>278.2265166277749</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>431.9315801834359</v>
+        <v>331.3909755417068</v>
       </c>
       <c r="M39" t="n">
         <v>562.7675336002444</v>
       </c>
       <c r="N39" t="n">
-        <v>124.404315057018</v>
+        <v>591.1925207054294</v>
       </c>
       <c r="O39" t="n">
         <v>464.5547166347826</v>
@@ -37716,7 +37716,7 @@
         <v>133.5215856463458</v>
       </c>
       <c r="P40" t="n">
-        <v>92.75161544120292</v>
+        <v>92.75161544120293</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>118.3245640248321</v>
+        <v>118.3245640248322</v>
       </c>
       <c r="K41" t="n">
         <v>310.9067559407621</v>
@@ -37786,16 +37786,16 @@
         <v>436.1820774440574</v>
       </c>
       <c r="M41" t="n">
-        <v>491.5483805673672</v>
+        <v>491.5483805673673</v>
       </c>
       <c r="N41" t="n">
-        <v>478.0164620162523</v>
+        <v>478.0164620162519</v>
       </c>
       <c r="O41" t="n">
         <v>398.6066938463955</v>
       </c>
       <c r="P41" t="n">
-        <v>307.7193084181723</v>
+        <v>307.7193084181724</v>
       </c>
       <c r="Q41" t="n">
         <v>153.4035027866375</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>88.02108437890749</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>278.2265166277749</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>431.9315801834359</v>
       </c>
       <c r="M42" t="n">
-        <v>95.97932795183299</v>
+        <v>562.7675336002444</v>
       </c>
       <c r="N42" t="n">
-        <v>591.1925207054294</v>
+        <v>490.6519160637002</v>
       </c>
       <c r="O42" t="n">
         <v>464.5547166347826</v>
@@ -37953,7 +37953,7 @@
         <v>133.5215856463458</v>
       </c>
       <c r="P43" t="n">
-        <v>92.75161544120292</v>
+        <v>92.75161544120293</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>118.3245640248321</v>
+        <v>118.3245640248322</v>
       </c>
       <c r="K44" t="n">
         <v>310.9067559407621</v>
@@ -38023,7 +38023,7 @@
         <v>436.1820774440574</v>
       </c>
       <c r="M44" t="n">
-        <v>491.5483805673672</v>
+        <v>491.5483805673673</v>
       </c>
       <c r="N44" t="n">
         <v>478.0164620162523</v>
@@ -38032,7 +38032,7 @@
         <v>398.6066938463955</v>
       </c>
       <c r="P44" t="n">
-        <v>307.7193084181723</v>
+        <v>307.7193084181724</v>
       </c>
       <c r="Q44" t="n">
         <v>153.4035027866375</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>95.51821388934323</v>
+        <v>278.2265166277749</v>
       </c>
       <c r="L45" t="n">
         <v>431.9315801834359</v>
@@ -38111,7 +38111,7 @@
         <v>464.5547166347826</v>
       </c>
       <c r="P45" t="n">
-        <v>360.0389258787872</v>
+        <v>177.3306231403556</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38190,7 +38190,7 @@
         <v>133.5215856463458</v>
       </c>
       <c r="P46" t="n">
-        <v>92.75161544120292</v>
+        <v>92.75161544120293</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
